--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856828.5967478243</v>
+        <v>856153.2691650705</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681862</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>95.91264075197986</v>
       </c>
       <c r="E11" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.77451047173994</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.13813028023977</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>108.8926439055176</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>108.8926439055176</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>108.8926439055176</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.33977076023197</v>
+        <v>18.33977076023183</v>
       </c>
       <c r="V12" t="n">
-        <v>25.60878921364565</v>
+        <v>25.60878921364551</v>
       </c>
       <c r="W12" t="n">
-        <v>43.68940492399057</v>
+        <v>43.68940492399042</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.17897610810442</v>
+        <v>12.17897610810428</v>
       </c>
       <c r="T13" t="n">
-        <v>21.08161657925142</v>
+        <v>21.08161657925127</v>
       </c>
       <c r="U13" t="n">
-        <v>79.74018931927287</v>
+        <v>79.74018931927273</v>
       </c>
       <c r="V13" t="n">
-        <v>46.63640924092968</v>
+        <v>46.63640924092954</v>
       </c>
       <c r="W13" t="n">
-        <v>79.79263506140606</v>
+        <v>79.79263506140592</v>
       </c>
       <c r="X13" t="n">
-        <v>19.84041810629978</v>
+        <v>19.84041810629964</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.44873204175875</v>
+        <v>12.4487320417586</v>
       </c>
     </row>
     <row r="14">
@@ -1613,58 +1613,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>36.28120274154332</v>
       </c>
       <c r="F14" t="n">
-        <v>36.28120274154318</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>14.49330773019685</v>
+      </c>
+      <c r="U14" t="n">
+        <v>45.13813028023966</v>
+      </c>
+      <c r="V14" t="n">
         <v>108.8926439055176</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>14.49330773019694</v>
-      </c>
-      <c r="U14" t="n">
-        <v>45.13813028023975</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>108.8926439055176</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.33977076023195</v>
+        <v>18.33977076023186</v>
       </c>
       <c r="V15" t="n">
-        <v>25.60878921364562</v>
+        <v>25.60878921364554</v>
       </c>
       <c r="W15" t="n">
-        <v>43.68940492399054</v>
+        <v>43.68940492399045</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.17897610810439</v>
+        <v>12.17897610810431</v>
       </c>
       <c r="T16" t="n">
-        <v>21.08161657925139</v>
+        <v>21.0816165792513</v>
       </c>
       <c r="U16" t="n">
-        <v>79.74018931927284</v>
+        <v>79.74018931927276</v>
       </c>
       <c r="V16" t="n">
-        <v>46.63640924092965</v>
+        <v>46.63640924092957</v>
       </c>
       <c r="W16" t="n">
-        <v>79.79263506140603</v>
+        <v>79.79263506140595</v>
       </c>
       <c r="X16" t="n">
-        <v>19.84041810629975</v>
+        <v>19.84041810629967</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.44873204175872</v>
+        <v>12.44873204175863</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>50.65363498024698</v>
       </c>
       <c r="C17" t="n">
-        <v>33.92232066779457</v>
+        <v>33.92232066779454</v>
       </c>
       <c r="D17" t="n">
-        <v>23.54195774345066</v>
+        <v>23.54195774345033</v>
       </c>
       <c r="E17" t="n">
         <v>50.05526074413939</v>
@@ -1856,7 +1856,7 @@
         <v>74.23108846939277</v>
       </c>
       <c r="G17" t="n">
-        <v>81.29584701399321</v>
+        <v>81.29584701399322</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>194.9820702596951</v>
+        <v>194.982070259695</v>
       </c>
       <c r="C26" t="n">
-        <v>178.2507559472427</v>
+        <v>178.2507559472426</v>
       </c>
       <c r="D26" t="n">
-        <v>167.8703930228984</v>
+        <v>167.8703930228983</v>
       </c>
       <c r="E26" t="n">
-        <v>194.3836960235875</v>
+        <v>194.3836960235874</v>
       </c>
       <c r="F26" t="n">
-        <v>218.5595237488409</v>
+        <v>218.5595237488408</v>
       </c>
       <c r="G26" t="n">
-        <v>225.6242822934413</v>
+        <v>225.6242822934412</v>
       </c>
       <c r="H26" t="n">
-        <v>144.3284352794481</v>
+        <v>144.328435279448</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.824744749948998</v>
+        <v>5.824744749948913</v>
       </c>
       <c r="T26" t="n">
-        <v>32.05890982450646</v>
+        <v>32.05890982450637</v>
       </c>
       <c r="U26" t="n">
-        <v>62.70373237454928</v>
+        <v>62.70373237454919</v>
       </c>
       <c r="V26" t="n">
-        <v>139.7988817908194</v>
+        <v>139.7988817908193</v>
       </c>
       <c r="W26" t="n">
-        <v>161.7957772688546</v>
+        <v>161.7957772688545</v>
       </c>
       <c r="X26" t="n">
-        <v>182.1272593994694</v>
+        <v>182.1272593994693</v>
       </c>
       <c r="Y26" t="n">
-        <v>197.9527320195358</v>
+        <v>197.9527320195357</v>
       </c>
     </row>
     <row r="27">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>8.578201643100059</v>
+        <v>8.578201643099973</v>
       </c>
       <c r="U27" t="n">
-        <v>35.90537285454147</v>
+        <v>35.90537285454138</v>
       </c>
       <c r="V27" t="n">
-        <v>43.17439130795515</v>
+        <v>43.17439130795506</v>
       </c>
       <c r="W27" t="n">
-        <v>61.25500701830006</v>
+        <v>61.25500701829998</v>
       </c>
       <c r="X27" t="n">
-        <v>15.72728987677829</v>
+        <v>15.7272898767782</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.93681168688605</v>
+        <v>14.93681168688596</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>29.74457820241392</v>
+        <v>29.74457820241383</v>
       </c>
       <c r="T28" t="n">
-        <v>38.64721867356091</v>
+        <v>38.64721867356083</v>
       </c>
       <c r="U28" t="n">
-        <v>97.30579141358237</v>
+        <v>97.30579141358228</v>
       </c>
       <c r="V28" t="n">
-        <v>64.20201133523918</v>
+        <v>64.20201133523909</v>
       </c>
       <c r="W28" t="n">
-        <v>97.35823715571556</v>
+        <v>97.35823715571547</v>
       </c>
       <c r="X28" t="n">
-        <v>37.40602020060928</v>
+        <v>37.40602020060919</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.01433413606824</v>
+        <v>30.01433413606816</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>178.2507559472426</v>
       </c>
       <c r="D29" t="n">
-        <v>167.8703930228984</v>
+        <v>167.8703930228983</v>
       </c>
       <c r="E29" t="n">
         <v>194.3836960235874</v>
@@ -2804,10 +2804,10 @@
         <v>218.5595237488408</v>
       </c>
       <c r="G29" t="n">
-        <v>225.6242822934413</v>
+        <v>225.6242822934412</v>
       </c>
       <c r="H29" t="n">
-        <v>144.3284352794481</v>
+        <v>144.328435279448</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.82474474994897</v>
+        <v>5.824744749948913</v>
       </c>
       <c r="T29" t="n">
-        <v>32.05890982450643</v>
+        <v>32.05890982450637</v>
       </c>
       <c r="U29" t="n">
-        <v>62.70373237454925</v>
+        <v>62.70373237454919</v>
       </c>
       <c r="V29" t="n">
         <v>139.7988817908193</v>
       </c>
       <c r="W29" t="n">
-        <v>161.7957772688546</v>
+        <v>161.7957772688545</v>
       </c>
       <c r="X29" t="n">
-        <v>182.1272593994694</v>
+        <v>182.1272593994693</v>
       </c>
       <c r="Y29" t="n">
-        <v>197.9527320195358</v>
+        <v>197.9527320195357</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>8.57820164310003</v>
+        <v>8.578201643099973</v>
       </c>
       <c r="U30" t="n">
-        <v>35.90537285454144</v>
+        <v>35.90537285454138</v>
       </c>
       <c r="V30" t="n">
-        <v>43.17439130795512</v>
+        <v>43.17439130795506</v>
       </c>
       <c r="W30" t="n">
-        <v>61.25500701830003</v>
+        <v>61.25500701829998</v>
       </c>
       <c r="X30" t="n">
-        <v>15.72728987677826</v>
+        <v>15.7272898767782</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.93681168688602</v>
+        <v>14.93681168688596</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>29.74457820241389</v>
+        <v>29.74457820241383</v>
       </c>
       <c r="T31" t="n">
-        <v>38.64721867356089</v>
+        <v>38.64721867356083</v>
       </c>
       <c r="U31" t="n">
-        <v>97.30579141358234</v>
+        <v>97.30579141358228</v>
       </c>
       <c r="V31" t="n">
-        <v>64.20201133523915</v>
+        <v>64.20201133523909</v>
       </c>
       <c r="W31" t="n">
-        <v>97.35823715571553</v>
+        <v>97.35823715571547</v>
       </c>
       <c r="X31" t="n">
-        <v>37.40602020060925</v>
+        <v>37.40602020060919</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.01433413606821</v>
+        <v>30.01433413606816</v>
       </c>
     </row>
     <row r="32">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.9231604351887</v>
+        <v>162.9231604351886</v>
       </c>
       <c r="C38" t="n">
-        <v>146.1918461227363</v>
+        <v>146.1918461227362</v>
       </c>
       <c r="D38" t="n">
         <v>135.811483198392</v>
       </c>
       <c r="E38" t="n">
-        <v>162.3247861990811</v>
+        <v>162.324786199081</v>
       </c>
       <c r="F38" t="n">
-        <v>186.5006139243345</v>
+        <v>186.5006139243344</v>
       </c>
       <c r="G38" t="n">
         <v>193.5653724689349</v>
       </c>
       <c r="H38" t="n">
-        <v>112.2695254549417</v>
+        <v>112.2695254549416</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.64482255004287</v>
+        <v>30.64482255004282</v>
       </c>
       <c r="V38" t="n">
-        <v>107.739971966313</v>
+        <v>107.7399719663129</v>
       </c>
       <c r="W38" t="n">
-        <v>129.7368674443482</v>
+        <v>129.7368674443481</v>
       </c>
       <c r="X38" t="n">
         <v>150.068349574963</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.84646303003507</v>
+        <v>3.846463030035014</v>
       </c>
       <c r="V39" t="n">
-        <v>11.11548148344875</v>
+        <v>11.11548148344869</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19609719379366</v>
+        <v>29.19609719379361</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.588308849054514</v>
+        <v>6.588308849054457</v>
       </c>
       <c r="U40" t="n">
-        <v>65.24688158907597</v>
+        <v>65.24688158907591</v>
       </c>
       <c r="V40" t="n">
-        <v>32.14310151073278</v>
+        <v>32.14310151073272</v>
       </c>
       <c r="W40" t="n">
-        <v>65.29932733120916</v>
+        <v>65.2993273312091</v>
       </c>
       <c r="X40" t="n">
-        <v>5.347110376102876</v>
+        <v>5.347110376102819</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.9231604351887</v>
+        <v>162.9231604351886</v>
       </c>
       <c r="C41" t="n">
-        <v>146.1918461227363</v>
+        <v>146.1918461227362</v>
       </c>
       <c r="D41" t="n">
         <v>135.811483198392</v>
       </c>
       <c r="E41" t="n">
-        <v>162.3247861990811</v>
+        <v>162.324786199081</v>
       </c>
       <c r="F41" t="n">
-        <v>186.5006139243345</v>
+        <v>186.5006139243344</v>
       </c>
       <c r="G41" t="n">
         <v>193.5653724689349</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.64482255004287</v>
+        <v>30.64482255004284</v>
       </c>
       <c r="V41" t="n">
-        <v>107.739971966313</v>
+        <v>107.7399719663129</v>
       </c>
       <c r="W41" t="n">
         <v>129.7368674443482</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.84646303003507</v>
+        <v>3.846463030035042</v>
       </c>
       <c r="V42" t="n">
-        <v>11.11548148344875</v>
+        <v>11.11548148344872</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19609719379366</v>
+        <v>29.19609719379363</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.588308849054514</v>
+        <v>6.588308849054486</v>
       </c>
       <c r="U43" t="n">
-        <v>65.24688158907597</v>
+        <v>65.24688158907594</v>
       </c>
       <c r="V43" t="n">
-        <v>32.14310151073278</v>
+        <v>32.14310151073275</v>
       </c>
       <c r="W43" t="n">
-        <v>65.29932733120916</v>
+        <v>65.29932733120913</v>
       </c>
       <c r="X43" t="n">
-        <v>5.347110376102876</v>
+        <v>5.347110376102847</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>193.5653724689349</v>
       </c>
       <c r="H44" t="n">
-        <v>112.2695254549416</v>
+        <v>112.2695254549417</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.64482255004282</v>
+        <v>30.64482255004284</v>
       </c>
       <c r="V44" t="n">
         <v>107.7399719663129</v>
       </c>
       <c r="W44" t="n">
-        <v>129.7368674443481</v>
+        <v>129.7368674443482</v>
       </c>
       <c r="X44" t="n">
         <v>150.068349574963</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.846463030035014</v>
+        <v>3.846463030035042</v>
       </c>
       <c r="V45" t="n">
-        <v>11.11548148344869</v>
+        <v>11.11548148344872</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19609719379361</v>
+        <v>29.19609719379363</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.588308849054457</v>
+        <v>6.588308849054486</v>
       </c>
       <c r="U46" t="n">
-        <v>65.24688158907591</v>
+        <v>65.24688158907594</v>
       </c>
       <c r="V46" t="n">
-        <v>32.14310151073272</v>
+        <v>32.14310151073275</v>
       </c>
       <c r="W46" t="n">
-        <v>65.2993273312091</v>
+        <v>65.29932733120913</v>
       </c>
       <c r="X46" t="n">
-        <v>5.347110376102819</v>
+        <v>5.347110376102847</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.9839350303963</v>
+        <v>105.5928668174716</v>
       </c>
       <c r="C11" t="n">
-        <v>279.9839350303963</v>
+        <v>105.5928668174716</v>
       </c>
       <c r="D11" t="n">
-        <v>279.9839350303963</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="E11" t="n">
-        <v>169.9913654288633</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="F11" t="n">
-        <v>169.9913654288633</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="G11" t="n">
-        <v>59.99879582733024</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="H11" t="n">
         <v>8.71141151244141</v>
       </c>
       <c r="I11" t="n">
-        <v>28.71258106161119</v>
+        <v>28.71258106161132</v>
       </c>
       <c r="J11" t="n">
-        <v>99.8834177211662</v>
+        <v>28.71258106161132</v>
       </c>
       <c r="K11" t="n">
-        <v>99.8834177211662</v>
+        <v>136.5162985280738</v>
       </c>
       <c r="L11" t="n">
-        <v>207.6871351876287</v>
+        <v>136.5162985280738</v>
       </c>
       <c r="M11" t="n">
-        <v>207.6871351876287</v>
+        <v>218.9193365557452</v>
       </c>
       <c r="N11" t="n">
-        <v>207.6871351876287</v>
+        <v>289.3581417107448</v>
       </c>
       <c r="O11" t="n">
-        <v>302.5795465535228</v>
+        <v>354.251417462944</v>
       </c>
       <c r="P11" t="n">
-        <v>354.2514174629445</v>
+        <v>354.251417462944</v>
       </c>
       <c r="Q11" t="n">
-        <v>396.9499169719981</v>
+        <v>396.9499169719977</v>
       </c>
       <c r="R11" t="n">
-        <v>423.9471268511536</v>
+        <v>423.9471268511534</v>
       </c>
       <c r="S11" t="n">
         <v>435.5705756220705</v>
@@ -5072,19 +5072,19 @@
         <v>435.5705756220705</v>
       </c>
       <c r="U11" t="n">
-        <v>389.9765046319292</v>
+        <v>435.5705756220705</v>
       </c>
       <c r="V11" t="n">
-        <v>279.9839350303963</v>
+        <v>325.5780060205375</v>
       </c>
       <c r="W11" t="n">
-        <v>279.9839350303963</v>
+        <v>215.5854364190045</v>
       </c>
       <c r="X11" t="n">
-        <v>279.9839350303963</v>
+        <v>105.5928668174716</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.9839350303963</v>
+        <v>105.5928668174716</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>8.71141151244141</v>
       </c>
       <c r="M12" t="n">
-        <v>8.71141151244141</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="N12" t="n">
-        <v>8.71141151244141</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="O12" t="n">
-        <v>8.71141151244141</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="P12" t="n">
-        <v>55.38816666474789</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.38816666474789</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="R12" t="n">
-        <v>55.38816666474789</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="S12" t="n">
-        <v>97.23460837897494</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="T12" t="n">
-        <v>97.23460837897494</v>
+        <v>97.23460837897451</v>
       </c>
       <c r="U12" t="n">
-        <v>78.70958740904365</v>
+        <v>78.70958740904337</v>
       </c>
       <c r="V12" t="n">
-        <v>52.84212355687632</v>
+        <v>52.84212355687618</v>
       </c>
       <c r="W12" t="n">
         <v>8.71141151244141</v>
@@ -5185,61 +5185,61 @@
         <v>8.71141151244141</v>
       </c>
       <c r="F13" t="n">
-        <v>8.71141151244141</v>
+        <v>68.25092272448448</v>
       </c>
       <c r="G13" t="n">
-        <v>8.71141151244141</v>
+        <v>106.497499402368</v>
       </c>
       <c r="H13" t="n">
-        <v>8.71141151244141</v>
+        <v>106.497499402368</v>
       </c>
       <c r="I13" t="n">
-        <v>8.71141151244141</v>
+        <v>106.497499402368</v>
       </c>
       <c r="J13" t="n">
-        <v>104.9948441015453</v>
+        <v>106.497499402368</v>
       </c>
       <c r="K13" t="n">
-        <v>104.9948441015453</v>
+        <v>211.8024219412453</v>
       </c>
       <c r="L13" t="n">
-        <v>104.9948441015453</v>
+        <v>211.8024219412453</v>
       </c>
       <c r="M13" t="n">
-        <v>104.9948441015453</v>
+        <v>211.8024219412453</v>
       </c>
       <c r="N13" t="n">
-        <v>104.9948441015453</v>
+        <v>211.8024219412453</v>
       </c>
       <c r="O13" t="n">
-        <v>206.7288766823878</v>
+        <v>211.8024219412453</v>
       </c>
       <c r="P13" t="n">
-        <v>206.7288766823878</v>
+        <v>211.8024219412453</v>
       </c>
       <c r="Q13" t="n">
-        <v>283.1750240952929</v>
+        <v>240.6886007904976</v>
       </c>
       <c r="R13" t="n">
-        <v>283.1750240952929</v>
+        <v>283.1750240952919</v>
       </c>
       <c r="S13" t="n">
-        <v>270.8730280265005</v>
+        <v>270.8730280264997</v>
       </c>
       <c r="T13" t="n">
-        <v>249.5784658252365</v>
+        <v>249.5784658252358</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0328200481932</v>
+        <v>169.0328200481926</v>
       </c>
       <c r="V13" t="n">
-        <v>121.9253359664461</v>
+        <v>121.9253359664456</v>
       </c>
       <c r="W13" t="n">
-        <v>41.32671469229851</v>
+        <v>41.32671469229822</v>
       </c>
       <c r="X13" t="n">
-        <v>21.28588832229873</v>
+        <v>21.28588832229859</v>
       </c>
       <c r="Y13" t="n">
         <v>8.71141151244141</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>155.3516606508867</v>
+        <v>45.35909104935388</v>
       </c>
       <c r="C14" t="n">
-        <v>155.3516606508867</v>
+        <v>45.35909104935388</v>
       </c>
       <c r="D14" t="n">
-        <v>155.3516606508867</v>
+        <v>45.35909104935388</v>
       </c>
       <c r="E14" t="n">
-        <v>155.3516606508867</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="F14" t="n">
-        <v>118.7039811139744</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="G14" t="n">
         <v>8.71141151244141</v>
@@ -5273,55 +5273,55 @@
         <v>8.71141151244141</v>
       </c>
       <c r="I14" t="n">
-        <v>28.71258106161122</v>
+        <v>28.7125810616113</v>
       </c>
       <c r="J14" t="n">
-        <v>119.3852364244277</v>
+        <v>28.7125810616113</v>
       </c>
       <c r="K14" t="n">
-        <v>227.1889538908901</v>
+        <v>82.98798007211616</v>
       </c>
       <c r="L14" t="n">
-        <v>281.3645590190997</v>
+        <v>85.998147541216</v>
       </c>
       <c r="M14" t="n">
-        <v>281.3645590190997</v>
+        <v>154.140640009245</v>
       </c>
       <c r="N14" t="n">
-        <v>286.5897915617217</v>
+        <v>261.9443574757075</v>
       </c>
       <c r="O14" t="n">
-        <v>286.5897915617217</v>
+        <v>326.8376332279066</v>
       </c>
       <c r="P14" t="n">
-        <v>286.5897915617217</v>
+        <v>378.5095041373284</v>
       </c>
       <c r="Q14" t="n">
-        <v>329.2882910707753</v>
+        <v>435.5705756220705</v>
       </c>
       <c r="R14" t="n">
-        <v>423.9471268511536</v>
+        <v>435.5705756220705</v>
       </c>
       <c r="S14" t="n">
         <v>435.5705756220705</v>
       </c>
       <c r="T14" t="n">
-        <v>420.9308708440938</v>
+        <v>420.9308708440939</v>
       </c>
       <c r="U14" t="n">
-        <v>375.3367998539526</v>
+        <v>375.3367998539527</v>
       </c>
       <c r="V14" t="n">
-        <v>375.3367998539526</v>
+        <v>265.3442302524198</v>
       </c>
       <c r="W14" t="n">
-        <v>265.3442302524197</v>
+        <v>155.3516606508868</v>
       </c>
       <c r="X14" t="n">
-        <v>155.3516606508867</v>
+        <v>45.35909104935388</v>
       </c>
       <c r="Y14" t="n">
-        <v>155.3516606508867</v>
+        <v>45.35909104935388</v>
       </c>
     </row>
     <row r="15">
@@ -5349,49 +5349,49 @@
         <v>8.71141151244141</v>
       </c>
       <c r="H15" t="n">
-        <v>55.38816666474778</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="I15" t="n">
-        <v>55.38816666474778</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="J15" t="n">
-        <v>55.38816666474778</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="K15" t="n">
-        <v>55.38816666474778</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="L15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="M15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="N15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="O15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="P15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="R15" t="n">
-        <v>55.38816666474778</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="S15" t="n">
-        <v>97.23460837897485</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="T15" t="n">
-        <v>97.23460837897485</v>
+        <v>97.2346083789746</v>
       </c>
       <c r="U15" t="n">
-        <v>78.70958740904359</v>
+        <v>78.70958740904342</v>
       </c>
       <c r="V15" t="n">
-        <v>52.8421235568763</v>
+        <v>52.84212355687621</v>
       </c>
       <c r="W15" t="n">
         <v>8.71141151244141</v>
@@ -5422,61 +5422,61 @@
         <v>8.71141151244141</v>
       </c>
       <c r="F16" t="n">
-        <v>8.71141151244141</v>
+        <v>68.25092272448445</v>
       </c>
       <c r="G16" t="n">
-        <v>8.71141151244141</v>
+        <v>68.25092272448445</v>
       </c>
       <c r="H16" t="n">
-        <v>8.71141151244141</v>
+        <v>68.25092272448445</v>
       </c>
       <c r="I16" t="n">
-        <v>8.71141151244141</v>
+        <v>68.25092272448445</v>
       </c>
       <c r="J16" t="n">
-        <v>105.9431642593429</v>
+        <v>68.25092272448445</v>
       </c>
       <c r="K16" t="n">
-        <v>105.9431642593429</v>
+        <v>173.5558452633617</v>
       </c>
       <c r="L16" t="n">
-        <v>105.9431642593429</v>
+        <v>178.4988871651885</v>
       </c>
       <c r="M16" t="n">
-        <v>105.9431642593429</v>
+        <v>283.1750240952921</v>
       </c>
       <c r="N16" t="n">
-        <v>105.9431642593429</v>
+        <v>283.1750240952921</v>
       </c>
       <c r="O16" t="n">
-        <v>164.2424533775934</v>
+        <v>283.1750240952921</v>
       </c>
       <c r="P16" t="n">
-        <v>164.2424533775934</v>
+        <v>283.1750240952921</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6886007904985</v>
+        <v>283.1750240952921</v>
       </c>
       <c r="R16" t="n">
-        <v>283.1750240952927</v>
+        <v>283.1750240952921</v>
       </c>
       <c r="S16" t="n">
-        <v>270.8730280265004</v>
+        <v>270.8730280264999</v>
       </c>
       <c r="T16" t="n">
-        <v>249.5784658252364</v>
+        <v>249.5784658252359</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0328200481931</v>
+        <v>169.0328200481927</v>
       </c>
       <c r="V16" t="n">
-        <v>121.925335966446</v>
+        <v>121.9253359664457</v>
       </c>
       <c r="W16" t="n">
-        <v>41.32671469229845</v>
+        <v>41.32671469229828</v>
       </c>
       <c r="X16" t="n">
-        <v>21.2858883222987</v>
+        <v>21.28588832229861</v>
       </c>
       <c r="Y16" t="n">
         <v>8.71141151244141</v>
@@ -5492,16 +5492,16 @@
         <v>274.4149212485731</v>
       </c>
       <c r="C17" t="n">
-        <v>240.1499508770633</v>
+        <v>240.1499508770635</v>
       </c>
       <c r="D17" t="n">
-        <v>216.3701955806491</v>
+        <v>216.370195580649</v>
       </c>
       <c r="E17" t="n">
-        <v>165.8093261421245</v>
+        <v>165.8093261421243</v>
       </c>
       <c r="F17" t="n">
-        <v>90.82842869829315</v>
+        <v>90.82842869829317</v>
       </c>
       <c r="G17" t="n">
         <v>8.71141151244141</v>
@@ -5513,52 +5513,52 @@
         <v>8.71141151244141</v>
       </c>
       <c r="J17" t="n">
-        <v>8.71141151244141</v>
+        <v>116.5151289789039</v>
       </c>
       <c r="K17" t="n">
-        <v>26.86670939309094</v>
+        <v>116.5151289789039</v>
       </c>
       <c r="L17" t="n">
-        <v>26.86670939309094</v>
+        <v>215.4788827354031</v>
       </c>
       <c r="M17" t="n">
-        <v>26.86670939309094</v>
+        <v>215.4788827354031</v>
       </c>
       <c r="N17" t="n">
-        <v>26.86670939309094</v>
+        <v>215.4788827354031</v>
       </c>
       <c r="O17" t="n">
-        <v>26.86670939309094</v>
+        <v>215.4788827354031</v>
       </c>
       <c r="P17" t="n">
-        <v>26.86670939309094</v>
+        <v>215.4788827354031</v>
       </c>
       <c r="Q17" t="n">
-        <v>26.86670939309094</v>
+        <v>215.4788827354031</v>
       </c>
       <c r="R17" t="n">
-        <v>134.6704268595534</v>
+        <v>323.2826002018656</v>
       </c>
       <c r="S17" t="n">
-        <v>242.4741443260158</v>
+        <v>431.086317668328</v>
       </c>
       <c r="T17" t="n">
-        <v>350.2778617924783</v>
+        <v>431.086317668328</v>
       </c>
       <c r="U17" t="n">
-        <v>431.0863176683281</v>
+        <v>431.086317668328</v>
       </c>
       <c r="V17" t="n">
         <v>435.5705756220705</v>
       </c>
       <c r="W17" t="n">
-        <v>417.9267958347912</v>
+        <v>417.9267958347914</v>
       </c>
       <c r="X17" t="n">
-        <v>379.7461654105273</v>
+        <v>379.7461654105275</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5802091074084</v>
+        <v>325.5802091074086</v>
       </c>
     </row>
     <row r="18">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.414921248573</v>
+        <v>274.4149212485732</v>
       </c>
       <c r="C20" t="n">
-        <v>240.1499508770634</v>
+        <v>240.1499508770635</v>
       </c>
       <c r="D20" t="n">
-        <v>216.3701955806489</v>
+        <v>216.3701955806491</v>
       </c>
       <c r="E20" t="n">
-        <v>165.8093261421242</v>
+        <v>165.8093261421244</v>
       </c>
       <c r="F20" t="n">
         <v>90.82842869829318</v>
@@ -5747,55 +5747,55 @@
         <v>8.71141151244141</v>
       </c>
       <c r="I20" t="n">
+        <v>8.71141151244141</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.71141151244141</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.71141151244141</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.71141151244141</v>
+      </c>
+      <c r="M20" t="n">
         <v>116.5151289789039</v>
       </c>
-      <c r="J20" t="n">
-        <v>116.5151289789039</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>224.3188464453663</v>
       </c>
-      <c r="L20" t="n">
-        <v>242.4741443260158</v>
-      </c>
-      <c r="M20" t="n">
-        <v>242.4741443260158</v>
-      </c>
-      <c r="N20" t="n">
-        <v>242.4741443260158</v>
-      </c>
       <c r="O20" t="n">
-        <v>242.4741443260158</v>
+        <v>224.3188464453663</v>
       </c>
       <c r="P20" t="n">
-        <v>242.4741443260158</v>
+        <v>224.3188464453663</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.4741443260158</v>
+        <v>224.3188464453663</v>
       </c>
       <c r="R20" t="n">
-        <v>242.4741443260158</v>
+        <v>327.7668581556081</v>
       </c>
       <c r="S20" t="n">
-        <v>242.4741443260158</v>
+        <v>435.5705756220705</v>
       </c>
       <c r="T20" t="n">
-        <v>350.2778617924783</v>
+        <v>435.5705756220705</v>
       </c>
       <c r="U20" t="n">
-        <v>431.0863176683281</v>
+        <v>435.5705756220705</v>
       </c>
       <c r="V20" t="n">
         <v>435.5705756220705</v>
       </c>
       <c r="W20" t="n">
-        <v>417.9267958347912</v>
+        <v>417.9267958347914</v>
       </c>
       <c r="X20" t="n">
-        <v>379.7461654105273</v>
+        <v>379.7461654105276</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5802091074083</v>
+        <v>325.5802091074086</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.4149212485731</v>
+        <v>274.4149212485733</v>
       </c>
       <c r="C23" t="n">
         <v>240.1499508770635</v>
       </c>
       <c r="D23" t="n">
-        <v>216.370195580649</v>
+        <v>216.3701955806492</v>
       </c>
       <c r="E23" t="n">
-        <v>165.8093261421243</v>
+        <v>165.8093261421246</v>
       </c>
       <c r="F23" t="n">
         <v>90.82842869829318</v>
@@ -5984,7 +5984,7 @@
         <v>8.71141151244141</v>
       </c>
       <c r="I23" t="n">
-        <v>116.5151289789039</v>
+        <v>8.71141151244141</v>
       </c>
       <c r="J23" t="n">
         <v>116.5151289789039</v>
@@ -5999,22 +5999,22 @@
         <v>116.5151289789039</v>
       </c>
       <c r="N23" t="n">
-        <v>116.5151289789039</v>
+        <v>139.1546848132958</v>
       </c>
       <c r="O23" t="n">
-        <v>116.5151289789039</v>
+        <v>139.1546848132958</v>
       </c>
       <c r="P23" t="n">
-        <v>116.5151289789039</v>
+        <v>246.9584022797583</v>
       </c>
       <c r="Q23" t="n">
-        <v>224.3188464453663</v>
+        <v>354.7621197462207</v>
       </c>
       <c r="R23" t="n">
-        <v>246.9584022797583</v>
+        <v>354.7621197462207</v>
       </c>
       <c r="S23" t="n">
-        <v>246.9584022797583</v>
+        <v>354.7621197462207</v>
       </c>
       <c r="T23" t="n">
         <v>354.7621197462207</v>
@@ -6026,13 +6026,13 @@
         <v>435.5705756220705</v>
       </c>
       <c r="W23" t="n">
-        <v>417.9267958347913</v>
+        <v>417.9267958347914</v>
       </c>
       <c r="X23" t="n">
-        <v>379.7461654105273</v>
+        <v>379.7461654105276</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5802091074085</v>
+        <v>325.5802091074086</v>
       </c>
     </row>
     <row r="24">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1183.840412769744</v>
+        <v>1183.840412769746</v>
       </c>
       <c r="C26" t="n">
-        <v>1003.789144136166</v>
+        <v>1003.789144136168</v>
       </c>
       <c r="D26" t="n">
-        <v>834.2230905776826</v>
+        <v>834.2230905776845</v>
       </c>
       <c r="E26" t="n">
-        <v>637.8759228770891</v>
+        <v>637.8759228770912</v>
       </c>
       <c r="F26" t="n">
-        <v>417.1087271711895</v>
+        <v>417.1087271711914</v>
       </c>
       <c r="G26" t="n">
-        <v>189.2054117232693</v>
+        <v>189.2054117232692</v>
       </c>
       <c r="H26" t="n">
         <v>43.41911346120054</v>
       </c>
       <c r="I26" t="n">
-        <v>46.03033693700391</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="J26" t="n">
-        <v>273.9131025043597</v>
+        <v>271.3018790285564</v>
       </c>
       <c r="K26" t="n">
-        <v>644.5386722247692</v>
+        <v>641.9274487489661</v>
       </c>
       <c r="L26" t="n">
-        <v>1111.348317780756</v>
+        <v>1108.737094304953</v>
       </c>
       <c r="M26" t="n">
-        <v>1111.348317780756</v>
+        <v>1307.022251298197</v>
       </c>
       <c r="N26" t="n">
-        <v>1111.348317780756</v>
+        <v>1810.36350375441</v>
       </c>
       <c r="O26" t="n">
-        <v>1484.172840764476</v>
+        <v>1857.866833433242</v>
       </c>
       <c r="P26" t="n">
-        <v>1849.77871553389</v>
+        <v>2036.625711868273</v>
       </c>
       <c r="Q26" t="n">
         <v>2093.686783353015</v>
@@ -6251,25 +6251,25 @@
         <v>2170.955673060027</v>
       </c>
       <c r="S26" t="n">
-        <v>2165.072092504522</v>
+        <v>2165.072092504523</v>
       </c>
       <c r="T26" t="n">
-        <v>2132.689355308051</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U26" t="n">
-        <v>2069.352251899415</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V26" t="n">
-        <v>1928.141260191517</v>
+        <v>1928.141260191518</v>
       </c>
       <c r="W26" t="n">
-        <v>1764.711182142169</v>
+        <v>1764.71118214217</v>
       </c>
       <c r="X26" t="n">
-        <v>1580.744253455836</v>
+        <v>1580.744253455837</v>
       </c>
       <c r="Y26" t="n">
-        <v>1380.791998890648</v>
+        <v>1380.79199889065</v>
       </c>
     </row>
     <row r="27">
@@ -6303,49 +6303,49 @@
         <v>43.41911346120054</v>
       </c>
       <c r="J27" t="n">
-        <v>75.64178167507774</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="K27" t="n">
-        <v>75.64178167507774</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="L27" t="n">
-        <v>75.64178167507774</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="M27" t="n">
-        <v>224.8100976910602</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="N27" t="n">
-        <v>224.8100976910602</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="O27" t="n">
-        <v>224.8100976910602</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="P27" t="n">
-        <v>224.8100976910602</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.8100976910602</v>
+        <v>224.8100976910597</v>
       </c>
       <c r="R27" t="n">
-        <v>224.8100976910602</v>
+        <v>224.8100976910597</v>
       </c>
       <c r="S27" t="n">
-        <v>224.8100976910602</v>
+        <v>224.8100976910597</v>
       </c>
       <c r="T27" t="n">
-        <v>216.1452475465147</v>
+        <v>216.1452475465143</v>
       </c>
       <c r="U27" t="n">
-        <v>179.877194158089</v>
+        <v>179.8771941580886</v>
       </c>
       <c r="V27" t="n">
-        <v>136.2666978874272</v>
+        <v>136.2666978874269</v>
       </c>
       <c r="W27" t="n">
-        <v>74.39295342449785</v>
+        <v>74.39295342449768</v>
       </c>
       <c r="X27" t="n">
-        <v>58.5068020338127</v>
+        <v>58.50680203381262</v>
       </c>
       <c r="Y27" t="n">
         <v>43.41911346120054</v>
@@ -6385,46 +6385,46 @@
         <v>43.41911346120054</v>
       </c>
       <c r="K28" t="n">
-        <v>43.41911346120054</v>
+        <v>131.3340899267113</v>
       </c>
       <c r="L28" t="n">
-        <v>113.2622945981854</v>
+        <v>220.7403146908949</v>
       </c>
       <c r="M28" t="n">
-        <v>197.4950359929048</v>
+        <v>220.7403146908949</v>
       </c>
       <c r="N28" t="n">
-        <v>284.8661729615324</v>
+        <v>220.7403146908949</v>
       </c>
       <c r="O28" t="n">
-        <v>350.2309628249381</v>
+        <v>315.7506416882408</v>
       </c>
       <c r="P28" t="n">
-        <v>382.9393512751729</v>
+        <v>315.7506416882408</v>
       </c>
       <c r="Q28" t="n">
-        <v>442.0839529735131</v>
+        <v>442.0839529735125</v>
       </c>
       <c r="R28" t="n">
-        <v>442.0839529735131</v>
+        <v>442.0839529735125</v>
       </c>
       <c r="S28" t="n">
-        <v>412.0389244862263</v>
+        <v>412.0389244862258</v>
       </c>
       <c r="T28" t="n">
-        <v>373.0013298664678</v>
+        <v>373.0013298664674</v>
       </c>
       <c r="U28" t="n">
-        <v>274.7126516709301</v>
+        <v>274.7126516709297</v>
       </c>
       <c r="V28" t="n">
-        <v>209.8621351706885</v>
+        <v>209.8621351706882</v>
       </c>
       <c r="W28" t="n">
-        <v>111.5204814780465</v>
+        <v>111.5204814780463</v>
       </c>
       <c r="X28" t="n">
-        <v>73.73662268955231</v>
+        <v>73.73662268955221</v>
       </c>
       <c r="Y28" t="n">
         <v>43.41911346120054</v>
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1183.840412769745</v>
+        <v>1183.840412769746</v>
       </c>
       <c r="C29" t="n">
         <v>1003.789144136167</v>
       </c>
       <c r="D29" t="n">
-        <v>834.2230905776836</v>
+        <v>834.223090577684</v>
       </c>
       <c r="E29" t="n">
-        <v>637.8759228770901</v>
+        <v>637.8759228770907</v>
       </c>
       <c r="F29" t="n">
-        <v>417.1087271711903</v>
+        <v>417.1087271711909</v>
       </c>
       <c r="G29" t="n">
-        <v>189.2054117232693</v>
+        <v>189.2054117232692</v>
       </c>
       <c r="H29" t="n">
         <v>43.41911346120054</v>
       </c>
       <c r="I29" t="n">
-        <v>46.03033693700394</v>
+        <v>46.03033693700399</v>
       </c>
       <c r="J29" t="n">
-        <v>46.03033693700394</v>
+        <v>46.03033693700399</v>
       </c>
       <c r="K29" t="n">
-        <v>87.39802476647577</v>
+        <v>416.6559066574137</v>
       </c>
       <c r="L29" t="n">
-        <v>367.3606739880796</v>
+        <v>696.6185558790175</v>
       </c>
       <c r="M29" t="n">
-        <v>880.9323544669626</v>
+        <v>871.508444305353</v>
       </c>
       <c r="N29" t="n">
-        <v>1384.273606923175</v>
+        <v>1299.106266693126</v>
       </c>
       <c r="O29" t="n">
-        <v>1671.019837098859</v>
+        <v>1551.834466665699</v>
       </c>
       <c r="P29" t="n">
-        <v>1849.77871553389</v>
+        <v>1917.440341435112</v>
       </c>
       <c r="Q29" t="n">
-        <v>2093.686783353015</v>
+        <v>2161.348409254238</v>
       </c>
       <c r="R29" t="n">
         <v>2170.955673060027</v>
@@ -6500,13 +6500,13 @@
         <v>1928.141260191518</v>
       </c>
       <c r="W29" t="n">
-        <v>1764.711182142169</v>
+        <v>1764.71118214217</v>
       </c>
       <c r="X29" t="n">
         <v>1580.744253455837</v>
       </c>
       <c r="Y29" t="n">
-        <v>1380.791998890649</v>
+        <v>1380.79199889065</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="C30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="D30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="E30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="F30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="G30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="H30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="I30" t="n">
-        <v>66.54770544134217</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="J30" t="n">
-        <v>96.38935602050583</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="K30" t="n">
-        <v>96.38935602050583</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="L30" t="n">
-        <v>96.38935602050583</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="M30" t="n">
-        <v>96.38935602050583</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="N30" t="n">
-        <v>224.81009769106</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="O30" t="n">
-        <v>224.81009769106</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="P30" t="n">
-        <v>224.81009769106</v>
+        <v>151.1316387926512</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.81009769106</v>
+        <v>200.353602050199</v>
       </c>
       <c r="R30" t="n">
-        <v>224.81009769106</v>
+        <v>200.353602050199</v>
       </c>
       <c r="S30" t="n">
-        <v>224.81009769106</v>
+        <v>224.8100976910597</v>
       </c>
       <c r="T30" t="n">
-        <v>216.1452475465146</v>
+        <v>216.1452475465143</v>
       </c>
       <c r="U30" t="n">
-        <v>179.8771941580889</v>
+        <v>179.8771941580886</v>
       </c>
       <c r="V30" t="n">
-        <v>136.2666978874271</v>
+        <v>136.2666978874269</v>
       </c>
       <c r="W30" t="n">
-        <v>74.39295342449779</v>
+        <v>74.39295342449768</v>
       </c>
       <c r="X30" t="n">
-        <v>58.50680203381268</v>
+        <v>58.50680203381262</v>
       </c>
       <c r="Y30" t="n">
         <v>43.41911346120054</v>
@@ -6607,61 +6607,61 @@
         <v>43.41911346120054</v>
       </c>
       <c r="F31" t="n">
-        <v>43.41911346120054</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="G31" t="n">
-        <v>43.41911346120054</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="H31" t="n">
-        <v>43.41911346120054</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="I31" t="n">
-        <v>43.41911346120054</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="J31" t="n">
-        <v>43.41911346120054</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="K31" t="n">
-        <v>131.3340899267113</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="L31" t="n">
-        <v>131.3340899267113</v>
+        <v>85.56867859987715</v>
       </c>
       <c r="M31" t="n">
-        <v>131.3340899267113</v>
+        <v>169.8014199945965</v>
       </c>
       <c r="N31" t="n">
-        <v>131.3340899267113</v>
+        <v>169.8014199945965</v>
       </c>
       <c r="O31" t="n">
-        <v>357.9312744025464</v>
+        <v>361.5313257770314</v>
       </c>
       <c r="P31" t="n">
-        <v>357.9312744025464</v>
+        <v>442.0839529735125</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.9874757420851</v>
+        <v>442.0839529735125</v>
       </c>
       <c r="R31" t="n">
-        <v>442.0839529735129</v>
+        <v>442.0839529735125</v>
       </c>
       <c r="S31" t="n">
-        <v>412.0389244862262</v>
+        <v>412.0389244862258</v>
       </c>
       <c r="T31" t="n">
-        <v>373.0013298664677</v>
+        <v>373.0013298664674</v>
       </c>
       <c r="U31" t="n">
-        <v>274.71265167093</v>
+        <v>274.7126516709297</v>
       </c>
       <c r="V31" t="n">
-        <v>209.8621351706884</v>
+        <v>209.8621351706882</v>
       </c>
       <c r="W31" t="n">
-        <v>111.5204814780465</v>
+        <v>111.5204814780463</v>
       </c>
       <c r="X31" t="n">
-        <v>73.73662268955228</v>
+        <v>73.73662268955221</v>
       </c>
       <c r="Y31" t="n">
         <v>43.41911346120054</v>
@@ -6695,31 +6695,31 @@
         <v>43.41911346120054</v>
       </c>
       <c r="I32" t="n">
-        <v>46.03033693700386</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="J32" t="n">
-        <v>99.8112275231924</v>
+        <v>84.45488269417331</v>
       </c>
       <c r="K32" t="n">
-        <v>283.589800909219</v>
+        <v>455.0804524145829</v>
       </c>
       <c r="L32" t="n">
-        <v>679.9239404841214</v>
+        <v>921.8900979705695</v>
       </c>
       <c r="M32" t="n">
-        <v>1133.549899053513</v>
+        <v>1435.461778449452</v>
       </c>
       <c r="N32" t="n">
-        <v>1450.044155175342</v>
+        <v>1878.620016282613</v>
       </c>
       <c r="O32" t="n">
-        <v>1702.772355147914</v>
+        <v>1878.620016282613</v>
       </c>
       <c r="P32" t="n">
-        <v>2068.378229917328</v>
+        <v>2161.348409254238</v>
       </c>
       <c r="Q32" t="n">
-        <v>2093.686783353015</v>
+        <v>2161.348409254238</v>
       </c>
       <c r="R32" t="n">
         <v>2170.955673060027</v>
@@ -6777,31 +6777,31 @@
         <v>43.41911346120054</v>
       </c>
       <c r="J33" t="n">
-        <v>43.41911346120054</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="K33" t="n">
-        <v>43.41911346120054</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="L33" t="n">
-        <v>224.8100976910605</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="M33" t="n">
-        <v>224.8100976910605</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="N33" t="n">
-        <v>224.8100976910605</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="O33" t="n">
-        <v>224.8100976910605</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="P33" t="n">
-        <v>224.8100976910605</v>
+        <v>75.64178167507774</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.8100976910605</v>
+        <v>200.3536020502</v>
       </c>
       <c r="R33" t="n">
-        <v>224.8100976910605</v>
+        <v>200.3536020502</v>
       </c>
       <c r="S33" t="n">
         <v>224.8100976910605</v>
@@ -6844,37 +6844,37 @@
         <v>43.41911346120054</v>
       </c>
       <c r="F34" t="n">
-        <v>85.56867859987702</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="G34" t="n">
-        <v>85.56867859987702</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="H34" t="n">
-        <v>85.56867859987702</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="I34" t="n">
-        <v>85.56867859987702</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="J34" t="n">
-        <v>195.6711162693796</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="K34" t="n">
-        <v>195.6711162693796</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="L34" t="n">
-        <v>195.6711162693796</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="M34" t="n">
-        <v>195.6711162693796</v>
+        <v>130.7053043179375</v>
       </c>
       <c r="N34" t="n">
-        <v>283.0422532380073</v>
+        <v>222.5285681888959</v>
       </c>
       <c r="O34" t="n">
-        <v>283.0422532380073</v>
+        <v>222.5285681888959</v>
       </c>
       <c r="P34" t="n">
-        <v>315.7506416882421</v>
+        <v>442.0839529735136</v>
       </c>
       <c r="Q34" t="n">
         <v>442.0839529735136</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>980.8325780784762</v>
+        <v>980.832578078476</v>
       </c>
       <c r="C35" t="n">
-        <v>833.1640466413692</v>
+        <v>833.1640466413689</v>
       </c>
       <c r="D35" t="n">
-        <v>695.9807302793571</v>
+        <v>695.9807302793567</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0162997752348</v>
+        <v>532.0162997752344</v>
       </c>
       <c r="F35" t="n">
-        <v>343.6318412658059</v>
+        <v>343.6318412658056</v>
       </c>
       <c r="G35" t="n">
         <v>148.1112630143568</v>
       </c>
       <c r="H35" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I35" t="n">
-        <v>69.05724615082384</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5299342635672</v>
+        <v>120.2269132612091</v>
       </c>
       <c r="K35" t="n">
-        <v>159.5299342635672</v>
+        <v>188.8506869246087</v>
       </c>
       <c r="L35" t="n">
-        <v>228.0539140446716</v>
+        <v>257.3746667057132</v>
       </c>
       <c r="M35" t="n">
-        <v>657.5617256605658</v>
+        <v>686.8824783216073</v>
       </c>
       <c r="N35" t="n">
-        <v>742.3489054684602</v>
+        <v>1062.394513396894</v>
       </c>
       <c r="O35" t="n">
-        <v>995.0771054410325</v>
+        <v>1062.394513396894</v>
       </c>
       <c r="P35" t="n">
-        <v>1392.421300936708</v>
+        <v>1459.73870889257</v>
       </c>
       <c r="Q35" t="n">
-        <v>1668.067689482094</v>
+        <v>1735.385097437956</v>
       </c>
       <c r="R35" t="n">
-        <v>1709.413274014144</v>
+        <v>1735.385097437956</v>
       </c>
       <c r="S35" t="n">
         <v>1735.385097437956</v>
@@ -6968,16 +6968,16 @@
         <v>1735.385097437956</v>
       </c>
       <c r="U35" t="n">
-        <v>1704.430731225792</v>
+        <v>1704.430731225791</v>
       </c>
       <c r="V35" t="n">
         <v>1595.602476714364</v>
       </c>
       <c r="W35" t="n">
-        <v>1464.555135861488</v>
+        <v>1464.555135861487</v>
       </c>
       <c r="X35" t="n">
-        <v>1312.970944371626</v>
+        <v>1312.970944371625</v>
       </c>
       <c r="Y35" t="n">
         <v>1145.401427002909</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="M36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="N36" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="O36" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136264</v>
       </c>
       <c r="P36" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136264</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136264</v>
       </c>
       <c r="R36" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136264</v>
       </c>
       <c r="S36" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136264</v>
       </c>
       <c r="T36" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136264</v>
       </c>
       <c r="U36" t="n">
-        <v>75.42646828940804</v>
+        <v>75.42646828940802</v>
       </c>
       <c r="V36" t="n">
-        <v>64.19870921521738</v>
+        <v>64.19870921521736</v>
       </c>
       <c r="W36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="X36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="37">
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70770194875913</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="L37" t="n">
-        <v>34.70770194875913</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="M37" t="n">
-        <v>34.70770194875913</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="N37" t="n">
-        <v>34.70770194875913</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="O37" t="n">
-        <v>154.2615198053885</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="P37" t="n">
-        <v>154.2615198053885</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="Q37" t="n">
-        <v>154.2615198053885</v>
+        <v>151.9703314995169</v>
       </c>
       <c r="R37" t="n">
-        <v>211.0963177630776</v>
+        <v>208.805129457206</v>
       </c>
       <c r="S37" t="n">
         <v>211.0963177630776</v>
@@ -7132,13 +7132,13 @@
         <v>106.0677400369531</v>
       </c>
       <c r="W37" t="n">
-        <v>40.10882354078224</v>
+        <v>40.10882354078223</v>
       </c>
       <c r="X37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.70770194875913</v>
+        <v>34.70770194875912</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.8325780784758</v>
+        <v>980.8325780784766</v>
       </c>
       <c r="C38" t="n">
-        <v>833.1640466413684</v>
+        <v>833.1640466413693</v>
       </c>
       <c r="D38" t="n">
-        <v>695.9807302793562</v>
+        <v>695.9807302793572</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0162997752338</v>
+        <v>532.016299775235</v>
       </c>
       <c r="F38" t="n">
-        <v>343.631841265805</v>
+        <v>343.6318412658062</v>
       </c>
       <c r="G38" t="n">
-        <v>148.1112630143568</v>
+        <v>148.1112630143567</v>
       </c>
       <c r="H38" t="n">
         <v>34.70770194875912</v>
       </c>
       <c r="I38" t="n">
-        <v>69.05724615082383</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J38" t="n">
-        <v>154.5764574632738</v>
+        <v>120.2269132612091</v>
       </c>
       <c r="K38" t="n">
-        <v>223.2002311266734</v>
+        <v>151.7752241481284</v>
       </c>
       <c r="L38" t="n">
-        <v>652.7080427425675</v>
+        <v>204.5085035705351</v>
       </c>
       <c r="M38" t="n">
-        <v>1030.70557833404</v>
+        <v>286.999370691459</v>
       </c>
       <c r="N38" t="n">
-        <v>1115.492758141934</v>
+        <v>716.5071823073531</v>
       </c>
       <c r="O38" t="n">
-        <v>1545.000569757828</v>
+        <v>1146.014993923247</v>
       </c>
       <c r="P38" t="n">
-        <v>1611.020815320145</v>
+        <v>1543.359189418922</v>
       </c>
       <c r="Q38" t="n">
-        <v>1668.067689482094</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="R38" t="n">
         <v>1709.413274014144</v>
@@ -7205,16 +7205,16 @@
         <v>1735.385097437956</v>
       </c>
       <c r="U38" t="n">
-        <v>1704.430731225791</v>
+        <v>1704.430731225792</v>
       </c>
       <c r="V38" t="n">
         <v>1595.602476714364</v>
       </c>
       <c r="W38" t="n">
-        <v>1464.555135861487</v>
+        <v>1464.555135861488</v>
       </c>
       <c r="X38" t="n">
-        <v>1312.970944371625</v>
+        <v>1312.970944371626</v>
       </c>
       <c r="Y38" t="n">
         <v>1145.401427002909</v>
@@ -7248,46 +7248,46 @@
         <v>34.70770194875912</v>
       </c>
       <c r="I39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="J39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="K39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="L39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="M39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="N39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="O39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="P39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="R39" t="n">
-        <v>34.70770194875912</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="S39" t="n">
-        <v>56.06588338177036</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="T39" t="n">
-        <v>79.31178448136264</v>
+        <v>79.31178448136248</v>
       </c>
       <c r="U39" t="n">
-        <v>75.42646828940802</v>
+        <v>75.42646828940792</v>
       </c>
       <c r="V39" t="n">
-        <v>64.19870921521736</v>
+        <v>64.19870921521732</v>
       </c>
       <c r="W39" t="n">
         <v>34.70770194875912</v>
@@ -7333,43 +7333,43 @@
         <v>34.70770194875912</v>
       </c>
       <c r="K40" t="n">
-        <v>45.67906390834108</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L40" t="n">
-        <v>145.7315278996719</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="M40" t="n">
-        <v>145.7315278996719</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="N40" t="n">
-        <v>145.7315278996719</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="O40" t="n">
-        <v>211.0963177630776</v>
+        <v>50.73349744567267</v>
       </c>
       <c r="P40" t="n">
-        <v>211.0963177630776</v>
+        <v>50.73349744567267</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.0963177630776</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="R40" t="n">
-        <v>211.0963177630776</v>
+        <v>208.8051294572057</v>
       </c>
       <c r="S40" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630773</v>
       </c>
       <c r="T40" t="n">
-        <v>204.4414603397902</v>
+        <v>204.44146033979</v>
       </c>
       <c r="U40" t="n">
-        <v>138.5355193407236</v>
+        <v>138.5355193407234</v>
       </c>
       <c r="V40" t="n">
-        <v>106.0677400369531</v>
+        <v>106.067740036953</v>
       </c>
       <c r="W40" t="n">
-        <v>40.10882354078223</v>
+        <v>40.10882354078218</v>
       </c>
       <c r="X40" t="n">
         <v>34.70770194875912</v>
@@ -7388,16 +7388,16 @@
         <v>980.8325780784764</v>
       </c>
       <c r="C41" t="n">
-        <v>833.1640466413689</v>
+        <v>833.1640466413691</v>
       </c>
       <c r="D41" t="n">
-        <v>695.9807302793567</v>
+        <v>695.980730279357</v>
       </c>
       <c r="E41" t="n">
-        <v>532.0162997752343</v>
+        <v>532.0162997752345</v>
       </c>
       <c r="F41" t="n">
-        <v>343.6318412658056</v>
+        <v>343.6318412658059</v>
       </c>
       <c r="G41" t="n">
         <v>148.1112630143568</v>
@@ -7406,34 +7406,34 @@
         <v>34.70770194875912</v>
       </c>
       <c r="I41" t="n">
-        <v>69.05724615082383</v>
+        <v>69.05724615082386</v>
       </c>
       <c r="J41" t="n">
-        <v>328.6783324444409</v>
+        <v>69.05724615082386</v>
       </c>
       <c r="K41" t="n">
-        <v>397.3021061078406</v>
+        <v>137.6810198142236</v>
       </c>
       <c r="L41" t="n">
-        <v>406.3847665297486</v>
+        <v>206.204999595328</v>
       </c>
       <c r="M41" t="n">
-        <v>406.3847665297486</v>
+        <v>635.7128112112221</v>
       </c>
       <c r="N41" t="n">
-        <v>835.8925781456427</v>
+        <v>1065.220622827116</v>
       </c>
       <c r="O41" t="n">
-        <v>1213.662422501676</v>
+        <v>1171.972620024266</v>
       </c>
       <c r="P41" t="n">
-        <v>1611.006617997352</v>
+        <v>1350.731498459296</v>
       </c>
       <c r="Q41" t="n">
-        <v>1668.067689482094</v>
+        <v>1626.377887004683</v>
       </c>
       <c r="R41" t="n">
-        <v>1709.413274014144</v>
+        <v>1735.385097437956</v>
       </c>
       <c r="S41" t="n">
         <v>1735.385097437956</v>
@@ -7515,16 +7515,16 @@
         <v>34.70770194875912</v>
       </c>
       <c r="S42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="T42" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="U42" t="n">
-        <v>75.42646828940804</v>
+        <v>75.42646828940796</v>
       </c>
       <c r="V42" t="n">
-        <v>64.19870921521738</v>
+        <v>64.19870921521733</v>
       </c>
       <c r="W42" t="n">
         <v>34.70770194875912</v>
@@ -7579,34 +7579,34 @@
         <v>34.70770194875912</v>
       </c>
       <c r="N43" t="n">
-        <v>34.70770194875912</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="O43" t="n">
-        <v>34.70770194875912</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="P43" t="n">
-        <v>211.0963177630776</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="Q43" t="n">
-        <v>211.0963177630776</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="R43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="S43" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="T43" t="n">
-        <v>204.4414603397902</v>
+        <v>204.4414603397901</v>
       </c>
       <c r="U43" t="n">
-        <v>138.5355193407236</v>
+        <v>138.5355193407235</v>
       </c>
       <c r="V43" t="n">
-        <v>106.0677400369531</v>
+        <v>106.067740036953</v>
       </c>
       <c r="W43" t="n">
-        <v>40.10882354078223</v>
+        <v>40.1088235407822</v>
       </c>
       <c r="X43" t="n">
         <v>34.70770194875912</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>980.8325780784772</v>
+        <v>980.8325780784764</v>
       </c>
       <c r="C44" t="n">
-        <v>833.1640466413699</v>
+        <v>833.1640466413692</v>
       </c>
       <c r="D44" t="n">
-        <v>695.9807302793577</v>
+        <v>695.9807302793572</v>
       </c>
       <c r="E44" t="n">
-        <v>532.0162997752352</v>
+        <v>532.0162997752346</v>
       </c>
       <c r="F44" t="n">
-        <v>343.6318412658065</v>
+        <v>343.6318412658059</v>
       </c>
       <c r="G44" t="n">
-        <v>148.1112630143567</v>
+        <v>148.1112630143568</v>
       </c>
       <c r="H44" t="n">
         <v>34.70770194875912</v>
       </c>
       <c r="I44" t="n">
-        <v>69.05724615082389</v>
+        <v>69.05724615082386</v>
       </c>
       <c r="J44" t="n">
         <v>328.678332444441</v>
       </c>
       <c r="K44" t="n">
-        <v>612.8645087680709</v>
+        <v>328.678332444441</v>
       </c>
       <c r="L44" t="n">
-        <v>681.3884885491753</v>
+        <v>758.186144060335</v>
       </c>
       <c r="M44" t="n">
-        <v>763.8793556700992</v>
+        <v>840.6770111812589</v>
       </c>
       <c r="N44" t="n">
-        <v>848.6665354779936</v>
+        <v>840.6770111812589</v>
       </c>
       <c r="O44" t="n">
-        <v>1203.061868085196</v>
+        <v>1270.184822797153</v>
       </c>
       <c r="P44" t="n">
-        <v>1600.406063580871</v>
+        <v>1667.529018292828</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.406063580871</v>
+        <v>1667.529018292828</v>
       </c>
       <c r="R44" t="n">
         <v>1709.413274014144</v>
@@ -7682,16 +7682,16 @@
         <v>1704.430731225792</v>
       </c>
       <c r="V44" t="n">
-        <v>1595.602476714365</v>
+        <v>1595.602476714364</v>
       </c>
       <c r="W44" t="n">
         <v>1464.555135861488</v>
       </c>
       <c r="X44" t="n">
-        <v>1312.970944371627</v>
+        <v>1312.970944371626</v>
       </c>
       <c r="Y44" t="n">
-        <v>1145.40142700291</v>
+        <v>1145.401427002909</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="C45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="D45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="F45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="G45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="H45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="I45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="J45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="K45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="L45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="M45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="N45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="O45" t="n">
-        <v>79.31178448136248</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="P45" t="n">
-        <v>79.31178448136248</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.31178448136248</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="R45" t="n">
-        <v>79.31178448136248</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="S45" t="n">
-        <v>79.31178448136248</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="T45" t="n">
-        <v>79.31178448136248</v>
+        <v>79.31178448136255</v>
       </c>
       <c r="U45" t="n">
-        <v>75.42646828940792</v>
+        <v>75.42646828940796</v>
       </c>
       <c r="V45" t="n">
-        <v>64.19870921521732</v>
+        <v>64.19870921521733</v>
       </c>
       <c r="W45" t="n">
         <v>34.70770194875912</v>
@@ -7786,64 +7786,64 @@
         <v>34.70770194875912</v>
       </c>
       <c r="D46" t="n">
-        <v>105.7775081600293</v>
+        <v>34.70770194875912</v>
       </c>
       <c r="E46" t="n">
-        <v>105.7775081600293</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="F46" t="n">
-        <v>105.7775081600293</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="G46" t="n">
-        <v>105.7775081600293</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="H46" t="n">
-        <v>105.7775081600293</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="I46" t="n">
-        <v>105.7775081600293</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="J46" t="n">
-        <v>211.0963177630773</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="K46" t="n">
-        <v>211.0963177630773</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="L46" t="n">
-        <v>211.0963177630773</v>
+        <v>35.23700822238992</v>
       </c>
       <c r="M46" t="n">
-        <v>211.0963177630773</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="N46" t="n">
-        <v>211.0963177630773</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="O46" t="n">
-        <v>211.0963177630773</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="P46" t="n">
-        <v>211.0963177630773</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="Q46" t="n">
-        <v>211.0963177630773</v>
+        <v>154.2615198053883</v>
       </c>
       <c r="R46" t="n">
-        <v>211.0963177630773</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="S46" t="n">
-        <v>211.0963177630773</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="T46" t="n">
-        <v>204.44146033979</v>
+        <v>204.4414603397901</v>
       </c>
       <c r="U46" t="n">
-        <v>138.5355193407234</v>
+        <v>138.5355193407235</v>
       </c>
       <c r="V46" t="n">
         <v>106.067740036953</v>
       </c>
       <c r="W46" t="n">
-        <v>40.10882354078218</v>
+        <v>40.1088235407822</v>
       </c>
       <c r="X46" t="n">
         <v>34.70770194875912</v>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>151.4763064618633</v>
+        <v>260.3689503673809</v>
       </c>
       <c r="L11" t="n">
-        <v>120.0421060107383</v>
+        <v>145.559669931683</v>
       </c>
       <c r="M11" t="n">
-        <v>137.469141353253</v>
+        <v>14.40459147438622</v>
       </c>
       <c r="N11" t="n">
-        <v>135.1496335886363</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>30.30215718555058</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>154.1061328265936</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>19.69880677097113</v>
+        <v>128.8994608096866</v>
       </c>
       <c r="K14" t="n">
-        <v>54.0690085413714</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>154.6176815642825</v>
       </c>
       <c r="M14" t="n">
-        <v>137.469141353253</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>37.74233566814431</v>
       </c>
       <c r="O14" t="n">
-        <v>140.7511784399498</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>154.1061328265936</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>107.3680496342444</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M26" t="n">
-        <v>137.469141353253</v>
+        <v>337.7571787201667</v>
       </c>
       <c r="N26" t="n">
-        <v>135.1496335886363</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>328.6072659645327</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>221.9942120870468</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>59.01641885235232</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>79.93380909387113</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>211.9089965165616</v>
       </c>
       <c r="R27" t="n">
-        <v>4.77899487805735</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>99.93133320088108</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>100.5664701794403</v>
       </c>
       <c r="N28" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>169.5633330205178</v>
+        <v>10.77398029279776</v>
       </c>
       <c r="P28" t="n">
-        <v>140.4068258466027</v>
+        <v>107.3680496342444</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10112,13 +10112,13 @@
         <v>134.410207826459</v>
       </c>
       <c r="K29" t="n">
-        <v>4.527509992256014</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325458</v>
+        <v>125.3912545774473</v>
       </c>
       <c r="N29" t="n">
         <v>454.8408013884635</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>59.01641885235232</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>75.87162509168655</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>99.93133320088108</v>
       </c>
       <c r="L31" t="n">
         <v>98.42502178808033</v>
       </c>
       <c r="M31" t="n">
-        <v>100.5664701794403</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N31" t="n">
-        <v>90.4367518125558</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>143.6899979478374</v>
+        <v>108.4705245201604</v>
       </c>
       <c r="P31" t="n">
-        <v>107.3680496342444</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>363.1802833535953</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
-        <v>454.8408013884635</v>
+        <v>394.0498775267956</v>
       </c>
       <c r="O32" t="n">
-        <v>396.0321885132552</v>
+        <v>140.7511784399498</v>
       </c>
       <c r="P32" t="n">
         <v>334.6706564983419</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>71.94078828657763</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>71.31914540423622</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.93380909387113</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>99.93133320088108</v>
       </c>
       <c r="L34" t="n">
         <v>98.42502178808033</v>
       </c>
       <c r="M34" t="n">
-        <v>100.5664701794403</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>103.5382927544514</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>140.4068258466027</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.003511919488247</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>422.9383830531862</v>
+        <v>350.5221661565356</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>293.6614699670633</v>
       </c>
       <c r="O35" t="n">
-        <v>396.0321885132552</v>
+        <v>140.7511784399498</v>
       </c>
       <c r="P35" t="n">
         <v>334.6706564983419</v>
@@ -10607,7 +10607,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>75.87162509168655</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>79.93380909387113</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.5964794769925</v>
+        <v>31.07492005973568</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>99.93133320088108</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10753,10 +10753,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>90.4367518125558</v>
       </c>
       <c r="O37" t="n">
-        <v>3.506475376658543</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>107.3680496342444</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3676631324684</v>
+        <v>204.8430471736834</v>
       </c>
       <c r="M38" t="n">
-        <v>461.6819323902285</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>348.2026583919188</v>
       </c>
       <c r="O38" t="n">
-        <v>396.0321885132552</v>
+        <v>353.8042032432325</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>98.58652704303812</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.52941663360724</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>77.45191162447955</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>102.5964794769925</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,25 +10978,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>100.5664701794403</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>90.4367518125558</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>107.3680496342444</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>137.469141353253</v>
+        <v>350.5221661565355</v>
       </c>
       <c r="N41" t="n">
-        <v>348.2026583919189</v>
+        <v>348.2026583919188</v>
       </c>
       <c r="O41" t="n">
-        <v>301.5436302534746</v>
+        <v>27.78822908288426</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
@@ -11081,7 +11081,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>75.87162509168655</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.5964794769925</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11230,13 +11230,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P43" t="n">
-        <v>64.74511908240012</v>
+        <v>107.3680496342444</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.48573624997248</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>151.4763064618633</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>389.7874151751577</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>277.9330123253617</v>
+        <v>353.8042032432324</v>
       </c>
       <c r="P44" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.170144342117</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.34507666790174</v>
+        <v>0.5441123123892311</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>77.45191162447955</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>99.93133320088108</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>98.42502178808033</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>100.5664701794403</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>90.4367518125558</v>
       </c>
       <c r="O46" t="n">
-        <v>103.5382927544514</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>107.3680496342444</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.4164681653856</v>
+        <v>177.4164681653854</v>
       </c>
       <c r="C11" t="n">
-        <v>160.6851538529332</v>
+        <v>160.685153852933</v>
       </c>
       <c r="D11" t="n">
-        <v>150.3047909285889</v>
+        <v>54.3921501766089</v>
       </c>
       <c r="E11" t="n">
-        <v>67.92545002376036</v>
+        <v>176.8180939292778</v>
       </c>
       <c r="F11" t="n">
-        <v>200.9939216545314</v>
+        <v>200.9939216545312</v>
       </c>
       <c r="G11" t="n">
-        <v>99.16603629361418</v>
+        <v>208.0586801991317</v>
       </c>
       <c r="H11" t="n">
-        <v>75.98832271339865</v>
+        <v>126.7628331851384</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.49330773019696</v>
+        <v>14.49330773019682</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.13813028023963</v>
       </c>
       <c r="V11" t="n">
-        <v>13.34063579099225</v>
+        <v>13.34063579099211</v>
       </c>
       <c r="W11" t="n">
-        <v>144.2301751745451</v>
+        <v>35.33753126902735</v>
       </c>
       <c r="X11" t="n">
-        <v>164.5616573051599</v>
+        <v>55.66901339964215</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.3871299252263</v>
+        <v>180.3871299252262</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>177.4164681653855</v>
       </c>
       <c r="C14" t="n">
-        <v>160.6851538529331</v>
+        <v>160.685153852933</v>
       </c>
       <c r="D14" t="n">
-        <v>150.3047909285889</v>
+        <v>150.3047909285888</v>
       </c>
       <c r="E14" t="n">
-        <v>176.8180939292779</v>
+        <v>140.5368911877345</v>
       </c>
       <c r="F14" t="n">
-        <v>164.7127189129882</v>
+        <v>200.9939216545313</v>
       </c>
       <c r="G14" t="n">
-        <v>99.16603629361414</v>
+        <v>208.0586801991317</v>
       </c>
       <c r="H14" t="n">
-        <v>126.7628331851386</v>
+        <v>126.7628331851385</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2332796965098</v>
+        <v>13.34063579099214</v>
       </c>
       <c r="W14" t="n">
-        <v>35.33753126902745</v>
+        <v>35.33753126902738</v>
       </c>
       <c r="X14" t="n">
-        <v>55.66901339964225</v>
+        <v>55.66901339964218</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.3871299252263</v>
+        <v>180.3871299252262</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.304023721284466e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708511.4909214386</v>
+        <v>708511.4909214389</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708511.4909214386</v>
+        <v>708511.4909214389</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921494.5039292085</v>
+        <v>921494.5039292083</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921494.5039292085</v>
+        <v>921494.5039292083</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>867029.8996317623</v>
+        <v>867029.8996317622</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>867029.8996317623</v>
+        <v>867029.8996317622</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>629421.1927606991</v>
+        <v>629421.1927606986</v>
       </c>
       <c r="C2" t="n">
-        <v>629421.1927606988</v>
+        <v>629421.1927606985</v>
       </c>
       <c r="D2" t="n">
         <v>629421.1927606986</v>
       </c>
       <c r="E2" t="n">
-        <v>541368.3154493221</v>
+        <v>541368.3154493222</v>
       </c>
       <c r="F2" t="n">
-        <v>541368.3154493221</v>
+        <v>541368.3154493222</v>
       </c>
       <c r="G2" t="n">
         <v>630787.5416765758</v>
@@ -26332,19 +26332,19 @@
         <v>630787.5416765757</v>
       </c>
       <c r="I2" t="n">
-        <v>630787.5416765759</v>
+        <v>630787.541676576</v>
       </c>
       <c r="J2" t="n">
-        <v>630787.5416765767</v>
+        <v>630787.5416765766</v>
       </c>
       <c r="K2" t="n">
-        <v>630787.5416765767</v>
+        <v>630787.5416765762</v>
       </c>
       <c r="L2" t="n">
-        <v>630787.5416765768</v>
+        <v>630787.5416765766</v>
       </c>
       <c r="M2" t="n">
-        <v>630787.5416765765</v>
+        <v>630787.5416765764</v>
       </c>
       <c r="N2" t="n">
         <v>630787.5416765764</v>
@@ -26353,7 +26353,7 @@
         <v>630787.5416765765</v>
       </c>
       <c r="P2" t="n">
-        <v>630787.5416765765</v>
+        <v>630787.5416765762</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>296705.4171615915</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>101410.2665481108</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163090.4798457633</v>
+        <v>163090.4798457635</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101410.2665481108</v>
+        <v>101410.2665481107</v>
       </c>
       <c r="M3" t="n">
         <v>25647.12785960517</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>49577.20523724911</v>
+        <v>49577.20523724927</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>357576.9703870104</v>
+        <v>357576.9703870105</v>
       </c>
       <c r="F4" t="n">
         <v>357576.9703870105</v>
       </c>
       <c r="G4" t="n">
+        <v>421960.8835407409</v>
+      </c>
+      <c r="H4" t="n">
         <v>421960.8835407408</v>
-      </c>
-      <c r="H4" t="n">
-        <v>421960.8835407409</v>
       </c>
       <c r="I4" t="n">
         <v>421960.8835407409</v>
@@ -26445,13 +26445,13 @@
         <v>430175.910957857</v>
       </c>
       <c r="L4" t="n">
-        <v>430175.9109578569</v>
+        <v>430175.910957857</v>
       </c>
       <c r="M4" t="n">
+        <v>426936.3852869392</v>
+      </c>
+      <c r="N4" t="n">
         <v>426936.3852869393</v>
-      </c>
-      <c r="N4" t="n">
-        <v>426936.3852869392</v>
       </c>
       <c r="O4" t="n">
         <v>426936.3852869393</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26654.56406561553</v>
+        <v>26654.56406561554</v>
       </c>
       <c r="F5" t="n">
-        <v>26654.56406561553</v>
+        <v>26654.56406561554</v>
       </c>
       <c r="G5" t="n">
         <v>37311.38868865695</v>
@@ -26491,7 +26491,7 @@
         <v>37311.38868865695</v>
       </c>
       <c r="J5" t="n">
-        <v>51555.69494420596</v>
+        <v>51555.69494420597</v>
       </c>
       <c r="K5" t="n">
         <v>51555.69494420597</v>
@@ -26500,16 +26500,16 @@
         <v>51555.69494420596</v>
       </c>
       <c r="M5" t="n">
+        <v>47630.18268478691</v>
+      </c>
+      <c r="N5" t="n">
         <v>47630.18268478692</v>
-      </c>
-      <c r="N5" t="n">
-        <v>47630.18268478691</v>
       </c>
       <c r="O5" t="n">
         <v>47630.18268478691</v>
       </c>
       <c r="P5" t="n">
-        <v>47630.18268478692</v>
+        <v>47630.18268478691</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132241.4721250075</v>
+        <v>132237.064547859</v>
       </c>
       <c r="C6" t="n">
-        <v>132241.4721250072</v>
+        <v>132237.0645478589</v>
       </c>
       <c r="D6" t="n">
-        <v>132241.472125007</v>
+        <v>132237.064547859</v>
       </c>
       <c r="E6" t="n">
-        <v>-139568.6361648953</v>
+        <v>-139857.0852817575</v>
       </c>
       <c r="F6" t="n">
-        <v>157136.7809966961</v>
+        <v>156848.3318798341</v>
       </c>
       <c r="G6" t="n">
-        <v>70105.00289906714</v>
+        <v>70105.00289906716</v>
       </c>
       <c r="H6" t="n">
-        <v>171515.2694471778</v>
+        <v>171515.2694471779</v>
       </c>
       <c r="I6" t="n">
-        <v>171515.269447178</v>
+        <v>171515.2694471781</v>
       </c>
       <c r="J6" t="n">
-        <v>-14034.54407124964</v>
+        <v>-14034.54407124994</v>
       </c>
       <c r="K6" t="n">
-        <v>149055.9357745137</v>
+        <v>149055.9357745132</v>
       </c>
       <c r="L6" t="n">
-        <v>47645.6692264032</v>
+        <v>47645.66922640297</v>
       </c>
       <c r="M6" t="n">
-        <v>130573.8458452452</v>
+        <v>130573.8458452451</v>
       </c>
       <c r="N6" t="n">
-        <v>156220.9737048502</v>
+        <v>156220.9737048501</v>
       </c>
       <c r="O6" t="n">
-        <v>106643.7684676012</v>
+        <v>106643.768467601</v>
       </c>
       <c r="P6" t="n">
-        <v>156220.9737048502</v>
+        <v>156220.97370485</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G2" t="n">
         <v>333.0627750111481</v>
@@ -26707,10 +26707,10 @@
         <v>333.0627750111481</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="K2" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="L2" t="n">
         <v>188.7343397316999</v>
@@ -26750,10 +26750,10 @@
         <v>123.4156654490489</v>
       </c>
       <c r="G3" t="n">
+        <v>123.4156654490489</v>
+      </c>
+      <c r="H3" t="n">
         <v>123.4156654490495</v>
-      </c>
-      <c r="H3" t="n">
-        <v>123.4156654490489</v>
       </c>
       <c r="I3" t="n">
         <v>123.4156654490489</v>
@@ -26820,7 +26820,7 @@
         <v>542.7389182650068</v>
       </c>
       <c r="M4" t="n">
-        <v>433.8462743594891</v>
+        <v>433.846274359489</v>
       </c>
       <c r="N4" t="n">
         <v>433.846274359489</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.7628331851386</v>
+        <v>126.7628331851385</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.97150654656139</v>
+        <v>61.97150654656161</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7628331851385</v>
+        <v>126.7628331851383</v>
       </c>
       <c r="M2" t="n">
         <v>32.05890982450646</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656139</v>
+        <v>61.97150654656159</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7628331851386</v>
+        <v>126.7628331851385</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656139</v>
+        <v>61.97150654656161</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="E11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="I11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="J11" t="n">
-        <v>206.2999418260095</v>
+        <v>134.410207826459</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>140.4276462579509</v>
+        <v>6.017438431488617</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="O11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="P11" t="n">
-        <v>206.2999418260095</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="12">
@@ -28199,7 +28199,7 @@
         <v>77.45191162447955</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31914540423622</v>
+        <v>160.7365159764919</v>
       </c>
       <c r="N12" t="n">
         <v>59.01641885235232</v>
@@ -28208,7 +28208,7 @@
         <v>75.87162509168655</v>
       </c>
       <c r="P12" t="n">
-        <v>127.0820466214534</v>
+        <v>79.93380909387113</v>
       </c>
       <c r="Q12" t="n">
         <v>102.5964794769925</v>
@@ -28217,19 +28217,19 @@
         <v>125.5557035337636</v>
       </c>
       <c r="S12" t="n">
-        <v>206.2999418260095</v>
+        <v>164.0308087813357</v>
       </c>
       <c r="T12" t="n">
         <v>197.3125413748</v>
       </c>
       <c r="U12" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V12" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W12" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28257,10 +28257,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6670360907737</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H13" t="n">
         <v>159.6553749464714</v>
@@ -28269,10 +28269,10 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J13" t="n">
-        <v>205.342042676719</v>
+        <v>108.0860501624726</v>
       </c>
       <c r="K13" t="n">
-        <v>99.93133320088108</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="L13" t="n">
         <v>98.42502178808033</v>
@@ -28284,37 +28284,37 @@
         <v>90.4367518125558</v>
       </c>
       <c r="O13" t="n">
-        <v>206.2999418260095</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P13" t="n">
         <v>107.3680496342444</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.2999418260095</v>
+        <v>158.2595695394915</v>
       </c>
       <c r="R13" t="n">
-        <v>163.3843627302578</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="E14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="I14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="J14" t="n">
-        <v>206.2999418260095</v>
+        <v>5.510747016772344</v>
       </c>
       <c r="K14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="L14" t="n">
-        <v>206.2999418260095</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="N14" t="n">
-        <v>140.4276462579515</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.2999418260095</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>206.2999418260095</v>
+        <v>179.0300328571655</v>
       </c>
       <c r="S14" t="n">
-        <v>206.2999418260095</v>
+        <v>194.559084481649</v>
       </c>
       <c r="T14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>135.7577500944538</v>
       </c>
       <c r="H15" t="n">
-        <v>155.0469672448206</v>
+        <v>107.8987297172384</v>
       </c>
       <c r="I15" t="n">
         <v>87.89457546438646</v>
@@ -28433,7 +28433,7 @@
         <v>91.52941663360724</v>
       </c>
       <c r="L15" t="n">
-        <v>77.45191162447955</v>
+        <v>166.8692821967353</v>
       </c>
       <c r="M15" t="n">
         <v>71.31914540423622</v>
@@ -28454,19 +28454,19 @@
         <v>125.5557035337636</v>
       </c>
       <c r="S15" t="n">
-        <v>206.2999418260095</v>
+        <v>164.0308087813357</v>
       </c>
       <c r="T15" t="n">
         <v>197.3125413748</v>
       </c>
       <c r="U15" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V15" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W15" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28494,7 +28494,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G16" t="n">
         <v>167.6670360907737</v>
@@ -28506,52 +28506,52 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J16" t="n">
-        <v>206.2999418260095</v>
+        <v>108.0860501624726</v>
       </c>
       <c r="K16" t="n">
-        <v>99.93133320088108</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="L16" t="n">
-        <v>98.42502178808033</v>
+        <v>103.4179934060873</v>
       </c>
       <c r="M16" t="n">
-        <v>100.5664701794403</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="N16" t="n">
         <v>90.4367518125558</v>
       </c>
       <c r="O16" t="n">
-        <v>162.426463580967</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P16" t="n">
-        <v>107.3680496342444</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.2999418260095</v>
+        <v>129.0816111059033</v>
       </c>
       <c r="R16" t="n">
-        <v>206.2999418260095</v>
+        <v>163.3843627302578</v>
       </c>
       <c r="S16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="17">
@@ -28582,43 +28582,43 @@
         <v>333.0627750111481</v>
       </c>
       <c r="I17" t="n">
-        <v>186.0967402611914</v>
+        <v>186.0967402611915</v>
       </c>
       <c r="J17" t="n">
-        <v>134.4102078264588</v>
+        <v>243.3028517319766</v>
       </c>
       <c r="K17" t="n">
-        <v>169.8149911897918</v>
+        <v>151.4763064618633</v>
       </c>
       <c r="L17" t="n">
-        <v>151.5771083631712</v>
+        <v>251.5404959959992</v>
       </c>
       <c r="M17" t="n">
-        <v>137.4691413532526</v>
+        <v>137.469141353253</v>
       </c>
       <c r="N17" t="n">
-        <v>135.1496335886359</v>
+        <v>135.1496335886363</v>
       </c>
       <c r="O17" t="n">
-        <v>140.7511784399495</v>
+        <v>140.7511784399498</v>
       </c>
       <c r="P17" t="n">
-        <v>154.1061328265933</v>
+        <v>154.1061328265936</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.1701443421167</v>
+        <v>163.170144342117</v>
       </c>
       <c r="R17" t="n">
-        <v>287.922676762683</v>
+        <v>287.9226767626831</v>
       </c>
       <c r="S17" t="n">
         <v>303.4517283871666</v>
       </c>
       <c r="T17" t="n">
-        <v>329.685893461724</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U17" t="n">
-        <v>333.0627750111481</v>
+        <v>251.4380721062493</v>
       </c>
       <c r="V17" t="n">
         <v>333.0627750111481</v>
@@ -28661,34 +28661,34 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I18" t="n">
-        <v>87.89457546438642</v>
+        <v>87.89457546438646</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58652704303799</v>
+        <v>98.58652704303812</v>
       </c>
       <c r="K18" t="n">
-        <v>91.52941663360704</v>
+        <v>91.52941663360724</v>
       </c>
       <c r="L18" t="n">
-        <v>77.45191162447929</v>
+        <v>77.45191162447955</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31914540423591</v>
+        <v>71.31914540423622</v>
       </c>
       <c r="N18" t="n">
-        <v>59.016418852352</v>
+        <v>59.01641885235232</v>
       </c>
       <c r="O18" t="n">
-        <v>75.87162509168627</v>
+        <v>75.87162509168655</v>
       </c>
       <c r="P18" t="n">
-        <v>79.93380909387091</v>
+        <v>79.93380909387113</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.5964794769923</v>
+        <v>102.5964794769925</v>
       </c>
       <c r="R18" t="n">
-        <v>125.5557035337635</v>
+        <v>125.5557035337636</v>
       </c>
       <c r="S18" t="n">
         <v>164.0308087813357</v>
@@ -28743,31 +28743,31 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J19" t="n">
-        <v>108.0860501624725</v>
+        <v>108.0860501624726</v>
       </c>
       <c r="K19" t="n">
-        <v>99.93133320088097</v>
+        <v>99.93133320088108</v>
       </c>
       <c r="L19" t="n">
-        <v>98.42502178808019</v>
+        <v>98.42502178808033</v>
       </c>
       <c r="M19" t="n">
-        <v>100.5664701794402</v>
+        <v>100.5664701794403</v>
       </c>
       <c r="N19" t="n">
-        <v>90.43675181255563</v>
+        <v>90.4367518125558</v>
       </c>
       <c r="O19" t="n">
-        <v>103.5382927544513</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P19" t="n">
-        <v>107.3680496342443</v>
+        <v>107.3680496342444</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.0816111059032</v>
+        <v>129.0816111059033</v>
       </c>
       <c r="R19" t="n">
-        <v>163.3843627302577</v>
+        <v>163.3843627302578</v>
       </c>
       <c r="S19" t="n">
         <v>218.4789179341139</v>
@@ -28819,46 +28819,46 @@
         <v>333.0627750111481</v>
       </c>
       <c r="I20" t="n">
-        <v>294.9893841667092</v>
+        <v>186.0967402611914</v>
       </c>
       <c r="J20" t="n">
-        <v>134.410207826459</v>
+        <v>134.4102078264588</v>
       </c>
       <c r="K20" t="n">
-        <v>260.3689503673809</v>
+        <v>151.476306461863</v>
       </c>
       <c r="L20" t="n">
-        <v>169.9157930911004</v>
+        <v>151.5771083631712</v>
       </c>
       <c r="M20" t="n">
-        <v>137.469141353253</v>
+        <v>246.3617852587702</v>
       </c>
       <c r="N20" t="n">
-        <v>135.1496335886363</v>
+        <v>244.0422774941535</v>
       </c>
       <c r="O20" t="n">
-        <v>140.7511784399498</v>
+        <v>140.7511784399495</v>
       </c>
       <c r="P20" t="n">
-        <v>154.1061328265936</v>
+        <v>154.1061328265933</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.170144342117</v>
+        <v>163.1701443421167</v>
       </c>
       <c r="R20" t="n">
-        <v>179.0300328571655</v>
+        <v>283.5229739786217</v>
       </c>
       <c r="S20" t="n">
-        <v>194.559084481649</v>
+        <v>303.4517283871666</v>
       </c>
       <c r="T20" t="n">
-        <v>329.685893461724</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U20" t="n">
-        <v>333.0627750111481</v>
+        <v>251.4380721062493</v>
       </c>
       <c r="V20" t="n">
-        <v>333.0627750111481</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>333.0627750111481</v>
@@ -28898,34 +28898,34 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I21" t="n">
-        <v>87.89457546438646</v>
+        <v>87.89457546438642</v>
       </c>
       <c r="J21" t="n">
-        <v>98.58652704303812</v>
+        <v>98.58652704303799</v>
       </c>
       <c r="K21" t="n">
-        <v>91.52941663360724</v>
+        <v>91.52941663360704</v>
       </c>
       <c r="L21" t="n">
-        <v>77.45191162447955</v>
+        <v>77.45191162447929</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31914540423622</v>
+        <v>71.31914540423591</v>
       </c>
       <c r="N21" t="n">
-        <v>59.01641885235232</v>
+        <v>59.016418852352</v>
       </c>
       <c r="O21" t="n">
-        <v>75.87162509168655</v>
+        <v>75.87162509168627</v>
       </c>
       <c r="P21" t="n">
-        <v>79.93380909387113</v>
+        <v>79.93380909387091</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.5964794769925</v>
+        <v>102.5964794769923</v>
       </c>
       <c r="R21" t="n">
-        <v>125.5557035337636</v>
+        <v>125.5557035337635</v>
       </c>
       <c r="S21" t="n">
         <v>164.0308087813357</v>
@@ -28980,31 +28980,31 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J22" t="n">
-        <v>108.0860501624726</v>
+        <v>108.0860501624725</v>
       </c>
       <c r="K22" t="n">
-        <v>99.93133320088108</v>
+        <v>99.93133320088097</v>
       </c>
       <c r="L22" t="n">
-        <v>98.42502178808033</v>
+        <v>98.42502178808019</v>
       </c>
       <c r="M22" t="n">
-        <v>100.5664701794403</v>
+        <v>100.5664701794402</v>
       </c>
       <c r="N22" t="n">
-        <v>90.4367518125558</v>
+        <v>90.43675181255563</v>
       </c>
       <c r="O22" t="n">
-        <v>103.5382927544514</v>
+        <v>103.5382927544513</v>
       </c>
       <c r="P22" t="n">
-        <v>107.3680496342444</v>
+        <v>107.3680496342443</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.0816111059033</v>
+        <v>129.0816111059032</v>
       </c>
       <c r="R22" t="n">
-        <v>163.3843627302578</v>
+        <v>163.3843627302577</v>
       </c>
       <c r="S22" t="n">
         <v>218.4789179341139</v>
@@ -29056,10 +29056,10 @@
         <v>333.0627750111481</v>
       </c>
       <c r="I23" t="n">
-        <v>294.9893841667092</v>
+        <v>186.0967402611915</v>
       </c>
       <c r="J23" t="n">
-        <v>134.410207826459</v>
+        <v>243.3028517319766</v>
       </c>
       <c r="K23" t="n">
         <v>151.4763064618633</v>
@@ -29071,25 +29071,25 @@
         <v>137.469141353253</v>
       </c>
       <c r="N23" t="n">
-        <v>135.1496335886363</v>
+        <v>158.0178718051938</v>
       </c>
       <c r="O23" t="n">
         <v>140.7511784399498</v>
       </c>
       <c r="P23" t="n">
-        <v>154.1061328265936</v>
+        <v>262.9987767321113</v>
       </c>
       <c r="Q23" t="n">
         <v>272.0627882476346</v>
       </c>
       <c r="R23" t="n">
-        <v>201.898271073723</v>
+        <v>179.0300328571655</v>
       </c>
       <c r="S23" t="n">
         <v>194.559084481649</v>
       </c>
       <c r="T23" t="n">
-        <v>329.685893461724</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U23" t="n">
         <v>333.0627750111481</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="C26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="D26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="E26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="F26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="G26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="H26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="I26" t="n">
-        <v>188.7343397317</v>
+        <v>186.0967402611915</v>
       </c>
       <c r="J26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="K26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="L26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="P26" t="n">
-        <v>188.7343397317</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.7343397317</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="S26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="T26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="U26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="V26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="W26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="X26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Y26" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
     </row>
     <row r="27">
@@ -29372,10 +29372,10 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I27" t="n">
-        <v>87.89457546438646</v>
+        <v>77.36379842985814</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>98.58652704303812</v>
       </c>
       <c r="K27" t="n">
         <v>91.52941663360724</v>
@@ -29384,43 +29384,43 @@
         <v>77.45191162447955</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>71.31914540423622</v>
       </c>
       <c r="N27" t="n">
-        <v>59.01641885235232</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>75.87162509168655</v>
       </c>
       <c r="P27" t="n">
-        <v>79.93380909387113</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.5964794769925</v>
+        <v>73.91069935422796</v>
       </c>
       <c r="R27" t="n">
-        <v>120.7767086557062</v>
+        <v>78.21316692998992</v>
       </c>
       <c r="S27" t="n">
         <v>164.0308087813357</v>
       </c>
       <c r="T27" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="U27" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="V27" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="W27" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="X27" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
     </row>
     <row r="28">
@@ -29457,49 +29457,49 @@
         <v>73.10435918684036</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>90.4367518125558</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.8669563105572</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="R28" t="n">
         <v>163.3843627302578</v>
       </c>
       <c r="S28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="T28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="U28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="V28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="W28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="X28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="C29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="D29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="E29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="F29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="G29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="H29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="I29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="N29" t="n">
-        <v>188.7343397317</v>
+        <v>112.2258245110547</v>
       </c>
       <c r="O29" t="n">
-        <v>34.36164666981032</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="R29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="S29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="T29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="U29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="V29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="W29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="X29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Y29" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>188.7343397317</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -29612,7 +29612,7 @@
         <v>87.89457546438646</v>
       </c>
       <c r="J30" t="n">
-        <v>128.7296084361327</v>
+        <v>98.58652704303812</v>
       </c>
       <c r="K30" t="n">
         <v>91.52941663360724</v>
@@ -29624,40 +29624,40 @@
         <v>71.31914540423622</v>
       </c>
       <c r="N30" t="n">
-        <v>188.7343397317</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>75.87162509168655</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>79.93380909387113</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.5964794769925</v>
+        <v>152.3156342825963</v>
       </c>
       <c r="R30" t="n">
         <v>125.5557035337636</v>
       </c>
       <c r="S30" t="n">
-        <v>164.0308087813357</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="T30" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="U30" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="V30" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="W30" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="X30" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Y30" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="G31" t="n">
         <v>167.6670360907737</v>
@@ -29694,7 +29694,7 @@
         <v>108.0860501624726</v>
       </c>
       <c r="K31" t="n">
-        <v>188.7343397317</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29703,40 +29703,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>90.4367518125558</v>
       </c>
       <c r="O31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Q31" t="n">
-        <v>188.7343397317</v>
+        <v>61.12493439304179</v>
       </c>
       <c r="R31" t="n">
-        <v>188.7343397317</v>
+        <v>163.3843627302578</v>
       </c>
       <c r="S31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="T31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="U31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="V31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="W31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="X31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.7343397317</v>
+        <v>188.7343397317001</v>
       </c>
     </row>
     <row r="32">
@@ -29767,31 +29767,31 @@
         <v>188.7343397316999</v>
       </c>
       <c r="I32" t="n">
+        <v>186.0967402611915</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>188.7343397316999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>188.7343397316999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>188.7343397316999</v>
       </c>
       <c r="M32" t="n">
-        <v>128.1831054796886</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>188.7343397316999</v>
+        <v>105.0197116531256</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.7343397316999</v>
+        <v>163.170144342117</v>
       </c>
       <c r="R32" t="n">
         <v>188.7343397316999</v>
@@ -29849,16 +29849,16 @@
         <v>87.89457546438646</v>
       </c>
       <c r="J33" t="n">
-        <v>98.58652704303812</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>91.52941663360724</v>
       </c>
       <c r="L33" t="n">
-        <v>188.7343397316999</v>
+        <v>77.45191162447955</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31914540423622</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>59.01641885235232</v>
@@ -29867,16 +29867,16 @@
         <v>75.87162509168655</v>
       </c>
       <c r="P33" t="n">
-        <v>79.93380909387113</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.5964794769925</v>
+        <v>10.08763596415611</v>
       </c>
       <c r="R33" t="n">
-        <v>125.5557035337636</v>
+        <v>78.21316692998992</v>
       </c>
       <c r="S33" t="n">
-        <v>164.0308087813357</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="T33" t="n">
         <v>188.7343397316999</v>
@@ -29916,7 +29916,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>188.7343397316999</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.6670360907737</v>
@@ -29928,28 +29928,28 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J34" t="n">
-        <v>184.3189426913885</v>
+        <v>108.0860501624726</v>
       </c>
       <c r="K34" t="n">
-        <v>99.93133320088108</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>183.1875233993824</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Q34" t="n">
-        <v>188.7343397316999</v>
+        <v>129.0816111059033</v>
       </c>
       <c r="R34" t="n">
         <v>163.3843627302578</v>
@@ -30004,19 +30004,19 @@
         <v>220.7932495562064</v>
       </c>
       <c r="I35" t="n">
-        <v>220.7932495562064</v>
+        <v>186.0967402611915</v>
       </c>
       <c r="J35" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="K35" t="n">
-        <v>151.4763064618633</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="L35" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="M35" t="n">
-        <v>148.3770326595559</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N35" t="n">
         <v>220.7932495562064</v>
@@ -30031,10 +30031,10 @@
         <v>220.7932495562064</v>
       </c>
       <c r="R35" t="n">
-        <v>220.7932495562064</v>
+        <v>110.6849561892637</v>
       </c>
       <c r="S35" t="n">
-        <v>220.7932495562064</v>
+        <v>194.559084481649</v>
       </c>
       <c r="T35" t="n">
         <v>220.7932495562064</v>
@@ -30098,16 +30098,16 @@
         <v>71.31914540423622</v>
       </c>
       <c r="N36" t="n">
-        <v>104.0710476731639</v>
+        <v>59.01641885235232</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>120.9262539124982</v>
       </c>
       <c r="P36" t="n">
-        <v>79.93380909387113</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>71.52155941725681</v>
       </c>
       <c r="R36" t="n">
         <v>125.5557035337636</v>
@@ -30165,10 +30165,10 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J37" t="n">
-        <v>108.0860501624726</v>
+        <v>73.10435918684036</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>218.3784337572021</v>
       </c>
       <c r="L37" t="n">
         <v>98.42502178808033</v>
@@ -30177,10 +30177,10 @@
         <v>100.5664701794403</v>
       </c>
       <c r="N37" t="n">
-        <v>90.4367518125558</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>220.7932495562064</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="S37" t="n">
-        <v>218.4789179341139</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T37" t="n">
         <v>220.7932495562064</v>
@@ -30241,25 +30241,25 @@
         <v>220.7932495562064</v>
       </c>
       <c r="I38" t="n">
-        <v>220.7932495562064</v>
+        <v>186.0967402611915</v>
       </c>
       <c r="J38" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="K38" t="n">
+        <v>183.3432871557211</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="L38" t="n">
-        <v>151.0557195901922</v>
-      </c>
-      <c r="M38" t="n">
-        <v>57.6029014796631</v>
       </c>
       <c r="N38" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="O38" t="n">
-        <v>178.5652642861836</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="P38" t="n">
         <v>220.7932495562064</v>
@@ -30320,16 +30320,16 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I39" t="n">
-        <v>87.89457546438646</v>
+        <v>132.9492042851979</v>
       </c>
       <c r="J39" t="n">
-        <v>98.58652704303812</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>91.52941663360724</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>77.45191162447955</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>71.31914540423622</v>
@@ -30344,16 +30344,16 @@
         <v>79.93380909387113</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.5964794769925</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>125.5557035337636</v>
       </c>
       <c r="S39" t="n">
-        <v>185.604729420741</v>
+        <v>164.0308087813357</v>
       </c>
       <c r="T39" t="n">
-        <v>220.7932495562064</v>
+        <v>197.3125413748</v>
       </c>
       <c r="U39" t="n">
         <v>220.7932495562064</v>
@@ -30402,34 +30402,34 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J40" t="n">
-        <v>108.0860501624726</v>
+        <v>73.10435918684036</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>99.93133320088108</v>
       </c>
       <c r="L40" t="n">
-        <v>30.51442712560194</v>
+        <v>98.42502178808033</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>100.5664701794403</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>90.4367518125558</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>119.725964973556</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>107.3680496342444</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.12493439304179</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="R40" t="n">
         <v>163.3843627302578</v>
       </c>
       <c r="S40" t="n">
-        <v>218.4789179341139</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T40" t="n">
         <v>220.7932495562064</v>
@@ -30481,16 +30481,16 @@
         <v>220.7932495562064</v>
       </c>
       <c r="J41" t="n">
-        <v>220.7932495562064</v>
+        <v>134.410207826459</v>
       </c>
       <c r="K41" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="L41" t="n">
-        <v>160.7515128297453</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N41" t="n">
         <v>220.7932495562064</v>
@@ -30499,16 +30499,16 @@
         <v>220.7932495562064</v>
       </c>
       <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="S41" t="n">
-        <v>220.7932495562064</v>
+        <v>194.559084481649</v>
       </c>
       <c r="T41" t="n">
         <v>220.7932495562064</v>
@@ -30575,19 +30575,19 @@
         <v>59.01641885235232</v>
       </c>
       <c r="O42" t="n">
-        <v>75.87162509168655</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>79.93380909387113</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.5964794769925</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>125.5557035337636</v>
       </c>
       <c r="S42" t="n">
-        <v>209.0854376021473</v>
+        <v>209.0854376021472</v>
       </c>
       <c r="T42" t="n">
         <v>197.3125413748</v>
@@ -30639,7 +30639,7 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J43" t="n">
-        <v>108.0860501624726</v>
+        <v>73.10435918684036</v>
       </c>
       <c r="K43" t="n">
         <v>99.93133320088108</v>
@@ -30651,19 +30651,19 @@
         <v>100.5664701794403</v>
       </c>
       <c r="N43" t="n">
-        <v>90.4367518125558</v>
+        <v>211.1981839909691</v>
       </c>
       <c r="O43" t="n">
-        <v>103.5382927544514</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>67.59587485593083</v>
+      </c>
+      <c r="R43" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>129.0816111059033</v>
-      </c>
-      <c r="R43" t="n">
-        <v>163.3843627302578</v>
       </c>
       <c r="S43" t="n">
         <v>218.4789179341139</v>
@@ -30721,16 +30721,16 @@
         <v>220.7932495562064</v>
       </c>
       <c r="K44" t="n">
-        <v>101.4218211490942</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>220.7932495562064</v>
+        <v>195.6359675475028</v>
       </c>
       <c r="M44" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="N44" t="n">
-        <v>220.7932495562064</v>
+        <v>135.1496335886363</v>
       </c>
       <c r="O44" t="n">
         <v>220.7932495562064</v>
@@ -30739,7 +30739,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>163.170144342117</v>
       </c>
       <c r="R44" t="n">
         <v>220.7932495562064</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>210.4267544311563</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -30803,7 +30803,7 @@
         <v>91.52941663360724</v>
       </c>
       <c r="L45" t="n">
-        <v>77.45191162447955</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>71.31914540423622</v>
@@ -30815,7 +30815,7 @@
         <v>75.87162509168655</v>
       </c>
       <c r="P45" t="n">
-        <v>79.93380909387113</v>
+        <v>124.9884379146827</v>
       </c>
       <c r="Q45" t="n">
         <v>102.5964794769925</v>
@@ -30858,10 +30858,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>220.7932495562064</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>147.5092769748464</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30876,31 +30876,31 @@
         <v>147.0657759563306</v>
       </c>
       <c r="J46" t="n">
-        <v>214.4686861251473</v>
+        <v>73.10435918684036</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>99.93133320088108</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>98.42502178808033</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.5382927544514</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>129.0816111059033</v>
+        <v>61.12493439304179</v>
       </c>
       <c r="R46" t="n">
-        <v>163.3843627302578</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="S46" t="n">
         <v>218.4789179341139</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4961433786896458</v>
+        <v>0.4961433786896434</v>
       </c>
       <c r="H17" t="n">
-        <v>5.081128377005336</v>
+        <v>5.081128377005312</v>
       </c>
       <c r="I17" t="n">
-        <v>19.12756760693259</v>
+        <v>19.1275676069325</v>
       </c>
       <c r="J17" t="n">
-        <v>42.10954908706036</v>
+        <v>42.10954908706017</v>
       </c>
       <c r="K17" t="n">
-        <v>63.11129830699308</v>
+        <v>63.11129830699279</v>
       </c>
       <c r="L17" t="n">
-        <v>78.29514623256634</v>
+        <v>78.29514623256597</v>
       </c>
       <c r="M17" t="n">
-        <v>87.11843604333832</v>
+        <v>87.11843604333792</v>
       </c>
       <c r="N17" t="n">
-        <v>88.52810341804029</v>
+        <v>88.52810341803988</v>
       </c>
       <c r="O17" t="n">
-        <v>83.59457769619512</v>
+        <v>83.59457769619473</v>
       </c>
       <c r="P17" t="n">
-        <v>71.34603803479447</v>
+        <v>71.34603803479415</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.57790328547152</v>
+        <v>53.57790328547127</v>
       </c>
       <c r="R17" t="n">
-        <v>31.16586651161349</v>
+        <v>31.16586651161334</v>
       </c>
       <c r="S17" t="n">
-        <v>11.30586724189031</v>
+        <v>11.30586724189026</v>
       </c>
       <c r="T17" t="n">
-        <v>2.171867640213925</v>
+        <v>2.171867640213915</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03969147029517165</v>
+        <v>0.03969147029517147</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2654601105885215</v>
+        <v>0.2654601105885203</v>
       </c>
       <c r="H18" t="n">
-        <v>2.563785804894406</v>
+        <v>2.563785804894394</v>
       </c>
       <c r="I18" t="n">
-        <v>9.13974503561357</v>
+        <v>9.139745035613528</v>
       </c>
       <c r="J18" t="n">
-        <v>25.08015895696203</v>
+        <v>25.08015895696191</v>
       </c>
       <c r="K18" t="n">
-        <v>42.86598636639297</v>
+        <v>42.86598636639277</v>
       </c>
       <c r="L18" t="n">
-        <v>57.63860866089806</v>
+        <v>57.63860866089779</v>
       </c>
       <c r="M18" t="n">
-        <v>67.26153766973195</v>
+        <v>67.26153766973164</v>
       </c>
       <c r="N18" t="n">
-        <v>69.04175042889797</v>
+        <v>69.04175042889766</v>
       </c>
       <c r="O18" t="n">
-        <v>63.15971324164704</v>
+        <v>63.15971324164675</v>
       </c>
       <c r="P18" t="n">
-        <v>50.69123813510109</v>
+        <v>50.69123813510087</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.88575025687864</v>
+        <v>33.88575025687849</v>
       </c>
       <c r="R18" t="n">
-        <v>16.48181283110137</v>
+        <v>16.48181283110129</v>
       </c>
       <c r="S18" t="n">
-        <v>4.930805124308718</v>
+        <v>4.930805124308696</v>
       </c>
       <c r="T18" t="n">
-        <v>1.069990533468645</v>
+        <v>1.069990533468641</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01746448095977116</v>
+        <v>0.01746448095977108</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2225528393343515</v>
+        <v>0.2225528393343504</v>
       </c>
       <c r="H19" t="n">
-        <v>1.978697062445417</v>
+        <v>1.978697062445408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.692770841073044</v>
+        <v>6.692770841073014</v>
       </c>
       <c r="J19" t="n">
-        <v>15.73448574093865</v>
+        <v>15.73448574093858</v>
       </c>
       <c r="K19" t="n">
-        <v>25.85659351539101</v>
+        <v>25.85659351539089</v>
       </c>
       <c r="L19" t="n">
-        <v>33.08753758612713</v>
+        <v>33.08753758612698</v>
       </c>
       <c r="M19" t="n">
-        <v>34.88616916947475</v>
+        <v>34.88616916947458</v>
       </c>
       <c r="N19" t="n">
-        <v>34.05665404104673</v>
+        <v>34.05665404104658</v>
       </c>
       <c r="O19" t="n">
-        <v>31.45683223609544</v>
+        <v>31.45683223609529</v>
       </c>
       <c r="P19" t="n">
-        <v>26.91675431367464</v>
+        <v>26.91675431367452</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.63576548280647</v>
+        <v>18.63576548280638</v>
       </c>
       <c r="R19" t="n">
-        <v>10.00678493952456</v>
+        <v>10.00678493952452</v>
       </c>
       <c r="S19" t="n">
-        <v>3.878489027308651</v>
+        <v>3.878489027308633</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9509075862467743</v>
+        <v>0.9509075862467699</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01213924578187373</v>
+        <v>0.01213924578187368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4961433786896434</v>
+        <v>0.4961433786896458</v>
       </c>
       <c r="H20" t="n">
-        <v>5.081128377005312</v>
+        <v>5.081128377005336</v>
       </c>
       <c r="I20" t="n">
-        <v>19.1275676069325</v>
+        <v>19.12756760693259</v>
       </c>
       <c r="J20" t="n">
-        <v>42.10954908706017</v>
+        <v>42.10954908706036</v>
       </c>
       <c r="K20" t="n">
-        <v>63.11129830699279</v>
+        <v>63.11129830699308</v>
       </c>
       <c r="L20" t="n">
-        <v>78.29514623256597</v>
+        <v>78.29514623256634</v>
       </c>
       <c r="M20" t="n">
-        <v>87.11843604333792</v>
+        <v>87.11843604333832</v>
       </c>
       <c r="N20" t="n">
-        <v>88.52810341803988</v>
+        <v>88.52810341804029</v>
       </c>
       <c r="O20" t="n">
-        <v>83.59457769619473</v>
+        <v>83.59457769619512</v>
       </c>
       <c r="P20" t="n">
-        <v>71.34603803479415</v>
+        <v>71.34603803479447</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.57790328547127</v>
+        <v>53.57790328547152</v>
       </c>
       <c r="R20" t="n">
-        <v>31.16586651161334</v>
+        <v>31.16586651161349</v>
       </c>
       <c r="S20" t="n">
-        <v>11.30586724189026</v>
+        <v>11.30586724189031</v>
       </c>
       <c r="T20" t="n">
-        <v>2.171867640213915</v>
+        <v>2.171867640213925</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03969147029517147</v>
+        <v>0.03969147029517165</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2654601105885203</v>
+        <v>0.2654601105885215</v>
       </c>
       <c r="H21" t="n">
-        <v>2.563785804894394</v>
+        <v>2.563785804894406</v>
       </c>
       <c r="I21" t="n">
-        <v>9.139745035613528</v>
+        <v>9.13974503561357</v>
       </c>
       <c r="J21" t="n">
-        <v>25.08015895696191</v>
+        <v>25.08015895696203</v>
       </c>
       <c r="K21" t="n">
-        <v>42.86598636639277</v>
+        <v>42.86598636639297</v>
       </c>
       <c r="L21" t="n">
-        <v>57.63860866089779</v>
+        <v>57.63860866089806</v>
       </c>
       <c r="M21" t="n">
-        <v>67.26153766973164</v>
+        <v>67.26153766973195</v>
       </c>
       <c r="N21" t="n">
-        <v>69.04175042889766</v>
+        <v>69.04175042889797</v>
       </c>
       <c r="O21" t="n">
-        <v>63.15971324164675</v>
+        <v>63.15971324164704</v>
       </c>
       <c r="P21" t="n">
-        <v>50.69123813510087</v>
+        <v>50.69123813510109</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.88575025687849</v>
+        <v>33.88575025687864</v>
       </c>
       <c r="R21" t="n">
-        <v>16.48181283110129</v>
+        <v>16.48181283110137</v>
       </c>
       <c r="S21" t="n">
-        <v>4.930805124308696</v>
+        <v>4.930805124308718</v>
       </c>
       <c r="T21" t="n">
-        <v>1.069990533468641</v>
+        <v>1.069990533468645</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01746448095977108</v>
+        <v>0.01746448095977116</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2225528393343504</v>
+        <v>0.2225528393343515</v>
       </c>
       <c r="H22" t="n">
-        <v>1.978697062445408</v>
+        <v>1.978697062445417</v>
       </c>
       <c r="I22" t="n">
-        <v>6.692770841073014</v>
+        <v>6.692770841073044</v>
       </c>
       <c r="J22" t="n">
-        <v>15.73448574093858</v>
+        <v>15.73448574093865</v>
       </c>
       <c r="K22" t="n">
-        <v>25.85659351539089</v>
+        <v>25.85659351539101</v>
       </c>
       <c r="L22" t="n">
-        <v>33.08753758612698</v>
+        <v>33.08753758612713</v>
       </c>
       <c r="M22" t="n">
-        <v>34.88616916947458</v>
+        <v>34.88616916947475</v>
       </c>
       <c r="N22" t="n">
-        <v>34.05665404104658</v>
+        <v>34.05665404104673</v>
       </c>
       <c r="O22" t="n">
-        <v>31.45683223609529</v>
+        <v>31.45683223609544</v>
       </c>
       <c r="P22" t="n">
-        <v>26.91675431367452</v>
+        <v>26.91675431367464</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.63576548280638</v>
+        <v>18.63576548280647</v>
       </c>
       <c r="R22" t="n">
-        <v>10.00678493952452</v>
+        <v>10.00678493952456</v>
       </c>
       <c r="S22" t="n">
-        <v>3.878489027308633</v>
+        <v>3.878489027308651</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9509075862467699</v>
+        <v>0.9509075862467743</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01213924578187368</v>
+        <v>0.01213924578187373</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.20320156481796</v>
+        <v>20.2032015648181</v>
       </c>
       <c r="J11" t="n">
-        <v>71.88973399955051</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>108.8926439055176</v>
       </c>
       <c r="L11" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>83.23539194714284</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>71.15030823737334</v>
       </c>
       <c r="O11" t="n">
-        <v>95.85092057161023</v>
+        <v>65.54876338605979</v>
       </c>
       <c r="P11" t="n">
-        <v>52.19380899941582</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.1297974838925</v>
+        <v>43.12979748389264</v>
       </c>
       <c r="R11" t="n">
-        <v>27.269908968844</v>
+        <v>27.26990896884415</v>
       </c>
       <c r="S11" t="n">
-        <v>11.7408573443605</v>
+        <v>11.74085734436064</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>89.41737057225565</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>47.14823752758231</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>42.26913304467379</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35553,10 +35553,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>60.14092041620512</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>38.6329057352359</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>97.25599251424636</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.3686086251285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35580,16 +35580,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>102.7616490715581</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.21833072010617</v>
+        <v>29.17795843358821</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>42.91557909575184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.20320156481798</v>
+        <v>20.20320156481807</v>
       </c>
       <c r="J14" t="n">
-        <v>91.58854077052167</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>54.82363536414633</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.04057320111095</v>
+      </c>
+      <c r="M14" t="n">
+        <v>68.83080047275659</v>
+      </c>
+      <c r="N14" t="n">
         <v>108.8926439055176</v>
       </c>
-      <c r="L14" t="n">
-        <v>54.72283346283791</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.278012669315189</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>65.54876338605976</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>52.19380899941594</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.12979748389252</v>
+        <v>57.63744594418389</v>
       </c>
       <c r="R14" t="n">
-        <v>95.61498563674577</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.74085734436053</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>47.14823752758219</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>89.41737057225575</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>42.26913304467381</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>60.14092041620509</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,31 +35802,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>98.21389166353688</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.3686086251285</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.992971618006929</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>105.7334716465693</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>58.88817082651558</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.2183307201062</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.91557909575172</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>108.8926439055176</v>
       </c>
       <c r="K17" t="n">
-        <v>18.33868472792882</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>99.96338763282756</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>108.8926439055176</v>
       </c>
       <c r="T17" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>81.62470290489881</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>4.529553488628721</v>
@@ -36115,23 +36115,23 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>108.8926439055176</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>108.8926439055176</v>
       </c>
-      <c r="L20" t="n">
-        <v>18.33868472792881</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4929411214563</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>108.8926439055176</v>
       </c>
       <c r="T20" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>81.62470290489881</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>4.529553488628721</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,11 +36352,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>108.8926439055176</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -36367,25 +36367,25 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>22.86823821655753</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>108.8926439055176</v>
       </c>
       <c r="Q23" t="n">
         <v>108.8926439055176</v>
       </c>
       <c r="R23" t="n">
-        <v>22.86823821655753</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>108.8926439055176</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>81.62470290489881</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.637599470508459</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>230.1846116841977</v>
+        <v>230.1846116841978</v>
       </c>
       <c r="K26" t="n">
-        <v>374.3692623438481</v>
+        <v>374.3692623438482</v>
       </c>
       <c r="L26" t="n">
-        <v>471.5248945009968</v>
+        <v>471.5248945009969</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>200.2880373669137</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>508.4255075315273</v>
       </c>
       <c r="O26" t="n">
-        <v>376.5904272562829</v>
+        <v>47.98316129175024</v>
       </c>
       <c r="P26" t="n">
-        <v>369.2988634034483</v>
+        <v>180.5645236717483</v>
       </c>
       <c r="Q26" t="n">
-        <v>246.3717856758839</v>
+        <v>57.63744594418389</v>
       </c>
       <c r="R26" t="n">
-        <v>78.04938354243625</v>
+        <v>78.04938354243633</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>32.54814971098706</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>150.6750666828106</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>183.2232163937971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>88.80300653081898</v>
       </c>
       <c r="L28" t="n">
-        <v>70.54866781513627</v>
+        <v>90.30931794361973</v>
       </c>
       <c r="M28" t="n">
-        <v>85.08357716638315</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25367370568446</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>66.02504026606636</v>
+        <v>95.9700272700464</v>
       </c>
       <c r="P28" t="n">
-        <v>33.03877621235836</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.74202191751539</v>
+        <v>127.6094053386583</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.637599470508487</v>
+        <v>2.637599470508544</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>41.78554326209276</v>
+        <v>374.3692623438482</v>
       </c>
       <c r="L29" t="n">
         <v>282.7905547692968</v>
       </c>
       <c r="M29" t="n">
-        <v>518.7592732109929</v>
+        <v>176.6564529558944</v>
       </c>
       <c r="N29" t="n">
-        <v>508.4255075315273</v>
+        <v>431.9169923108819</v>
       </c>
       <c r="O29" t="n">
-        <v>289.6426567431157</v>
+        <v>255.2810100733053</v>
       </c>
       <c r="P29" t="n">
-        <v>180.5645236717483</v>
+        <v>369.2988634034484</v>
       </c>
       <c r="Q29" t="n">
-        <v>246.3717856758839</v>
+        <v>246.371785675884</v>
       </c>
       <c r="R29" t="n">
-        <v>78.04938354243627</v>
+        <v>9.704306874534591</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.36221412135518</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>30.1430813930946</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,22 +36920,22 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>129.7179208793477</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>108.8005306378289</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>49.71915480560381</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>24.70353095036437</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.57531832189557</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,28 +36990,28 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>88.80300653081892</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>85.08357716638315</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>228.8860449250859</v>
+        <v>193.666571497409</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>81.36629009745567</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.65272862579669</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.34997700144222</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.637599470508402</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>54.32413190524095</v>
+        <v>41.45027195249775</v>
       </c>
       <c r="K32" t="n">
-        <v>185.6349226121481</v>
+        <v>374.369262343848</v>
       </c>
       <c r="L32" t="n">
-        <v>400.3375147221237</v>
+        <v>471.5248945009967</v>
       </c>
       <c r="M32" t="n">
-        <v>458.2080389589814</v>
+        <v>518.7592732109928</v>
       </c>
       <c r="N32" t="n">
-        <v>319.6911677998272</v>
+        <v>447.6345836698593</v>
       </c>
       <c r="O32" t="n">
-        <v>255.2810100733053</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>369.2988634034483</v>
+        <v>285.5842353248739</v>
       </c>
       <c r="Q32" t="n">
-        <v>25.56419538958294</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>78.04938354243619</v>
+        <v>9.704306874534449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>32.54814971098706</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>183.223216393798</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,13 +37166,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>125.9715357324467</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>24.70353095036423</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>42.57531832189542</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>111.2145835045481</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>88.16786955225959</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25367370568446</v>
+        <v>92.75077158682663</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>33.03877621235836</v>
+        <v>221.7731159440583</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.6094053386581</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.69650929501486</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.38655364923567</v>
+        <v>86.38304172974742</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>69.31694309434312</v>
       </c>
       <c r="L35" t="n">
         <v>69.21614119303479</v>
       </c>
       <c r="M35" t="n">
-        <v>433.8462743594891</v>
+        <v>433.846274359489</v>
       </c>
       <c r="N35" t="n">
-        <v>85.6436159675701</v>
+        <v>379.3050859346334</v>
       </c>
       <c r="O35" t="n">
-        <v>255.2810100733053</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>401.3577732279547</v>
@@ -37327,10 +37327,10 @@
         <v>278.4306955003902</v>
       </c>
       <c r="R35" t="n">
-        <v>41.76321669904091</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.2341650745574</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>45.05462882081164</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>118.447100556321</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>120.7614321784135</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>57.4088868259486</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.314331622092483</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.69650929501486</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>86.38304172974742</v>
+        <v>86.38304172974748</v>
       </c>
       <c r="K38" t="n">
-        <v>69.31694309434312</v>
+        <v>31.86698069385782</v>
       </c>
       <c r="L38" t="n">
+        <v>53.26593881051184</v>
+      </c>
+      <c r="M38" t="n">
+        <v>83.32410820295344</v>
+      </c>
+      <c r="N38" t="n">
         <v>433.846274359489</v>
-      </c>
-      <c r="M38" t="n">
-        <v>381.8156925166386</v>
-      </c>
-      <c r="N38" t="n">
-        <v>85.6436159675701</v>
       </c>
       <c r="O38" t="n">
         <v>433.846274359489</v>
       </c>
       <c r="P38" t="n">
-        <v>66.68711672961273</v>
+        <v>401.3577732279547</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.6231052140894</v>
+        <v>57.62310521408946</v>
       </c>
       <c r="R38" t="n">
-        <v>41.76321669904091</v>
+        <v>110.1082933669427</v>
       </c>
       <c r="S38" t="n">
-        <v>26.2341650745574</v>
+        <v>26.23416507455746</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>45.05462882081147</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37646,10 +37646,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>21.5739206394053</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>23.48070818140634</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>11.08218379755754</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>101.0630949407382</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37713,19 +37713,19 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>66.02504026606636</v>
+        <v>16.18767221910459</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>159.6683151631647</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.31433162209254</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.69650929501486</v>
+        <v>34.69650929501489</v>
       </c>
       <c r="J41" t="n">
-        <v>262.2435215087041</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>69.31694309434312</v>
+        <v>69.31694309434315</v>
       </c>
       <c r="L41" t="n">
-        <v>9.174404466573719</v>
+        <v>69.21614119303482</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>433.846274359489</v>
       </c>
       <c r="N41" t="n">
         <v>433.846274359489</v>
       </c>
       <c r="O41" t="n">
-        <v>381.5857013697311</v>
+        <v>107.8303001991408</v>
       </c>
       <c r="P41" t="n">
-        <v>401.3577732279547</v>
+        <v>180.5645236717483</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.63744594418389</v>
+        <v>278.4306955003903</v>
       </c>
       <c r="R41" t="n">
-        <v>41.76321669904091</v>
+        <v>110.1082933669427</v>
       </c>
       <c r="S41" t="n">
-        <v>26.2341650745574</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>45.05462882081164</v>
+        <v>45.05462882081155</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>120.7614321784134</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>178.1703190043621</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.40888682594863</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,25 +38011,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.69650929501492</v>
+        <v>34.69650929501489</v>
       </c>
       <c r="J44" t="n">
-        <v>262.2435215087042</v>
+        <v>262.2435215087041</v>
       </c>
       <c r="K44" t="n">
-        <v>287.0567437612423</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>69.21614119303484</v>
+        <v>433.846274359489</v>
       </c>
       <c r="M44" t="n">
-        <v>83.32410820295344</v>
+        <v>83.32410820295341</v>
       </c>
       <c r="N44" t="n">
-        <v>85.64361596757016</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>357.9750834416183</v>
+        <v>433.846274359489</v>
       </c>
       <c r="P44" t="n">
         <v>401.3577732279547</v>
@@ -38038,10 +38038,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.1082933669427</v>
+        <v>42.30732901143017</v>
       </c>
       <c r="S44" t="n">
-        <v>26.23416507455746</v>
+        <v>26.23416507455743</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38069,7 +38069,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>45.05462882081147</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>45.05462882081155</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>71.78768304168707</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.5346528016472744</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>106.3826359626747</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>120.2267793767661</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.40888682594863</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
